--- a/data/Cabildo.xlsx
+++ b/data/Cabildo.xlsx
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4279,11 +4279,11 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
@@ -4292,12 +4292,12 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4327,11 +4327,11 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
@@ -4340,12 +4340,12 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -5080,7 +5080,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Regularización Botadero de Ripios (e-seia)</t>
+          <t>PROYECTO AMPLIACIÓN DE TRANQUES DE RELAVES Nº6 (e-seia)</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5099,7 +5099,7 @@
         </is>
       </c>
       <c r="F99" t="n">
-        <v>327</v>
+        <v>1200</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
@@ -5108,12 +5108,12 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2313389&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2313324&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Regularización Botadero de Ripios (e-seia)</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5138,16 +5138,16 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Compañía Minera Cerro Negro S.A.</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>10</v>
+        <v>327</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
@@ -5161,7 +5161,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2313389&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>PROYECTO AMPLIACIÓN DE TRANQUES DE RELAVES Nº6 (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5186,16 +5186,16 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Compañía Minera Cerro Negro S.A.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>1200</v>
+        <v>10</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
@@ -5204,12 +5204,12 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2313324&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">

--- a/data/Cabildo.xlsx
+++ b/data/Cabildo.xlsx
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4279,11 +4279,11 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
@@ -4292,12 +4292,12 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4327,11 +4327,11 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
@@ -4340,12 +4340,12 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -5080,7 +5080,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>PROYECTO AMPLIACIÓN DE TRANQUES DE RELAVES Nº6 (e-seia)</t>
+          <t>Regularización Botadero de Ripios (e-seia)</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5099,7 +5099,7 @@
         </is>
       </c>
       <c r="F99" t="n">
-        <v>1200</v>
+        <v>327</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
@@ -5108,12 +5108,12 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2313324&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2313389&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Regularización Botadero de Ripios (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5138,16 +5138,16 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Compañía Minera Cerro Negro S.A.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>327</v>
+        <v>10</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
@@ -5161,7 +5161,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2313389&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>PROYECTO AMPLIACIÓN DE TRANQUES DE RELAVES Nº6 (e-seia)</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5186,16 +5186,16 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Compañía Minera Cerro Negro S.A.</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>10</v>
+        <v>1200</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
@@ -5204,12 +5204,12 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2313324&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">

--- a/data/Cabildo.xlsx
+++ b/data/Cabildo.xlsx
@@ -2119,7 +2119,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>EMPRESA NACIONAL DE MINERIA</t>
+          <t>Empresa Nacional de Minería</t>
         </is>
       </c>
       <c r="F37" t="n">

--- a/data/Cabildo.xlsx
+++ b/data/Cabildo.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J137"/>
+  <dimension ref="A1:J138"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Proyecto Jardín Solar Petorca</t>
+          <t>Disposición de Relave en Pasta en Interior Mina</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>ORION POWER S.A.</t>
+          <t>Minera Las Cenizas S.A.</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>25/11/2020</t>
+          <t>09/05/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149087079&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155749878&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Estación de Transferencia de Residuos Sólidos Comuna de Cabildo</t>
+          <t>Proyecto Jardín Solar Petorca</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,25 +487,25 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Cabildo</t>
+          <t>ORION POWER S.A.</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1400</v>
+        <v>12000</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>21/10/2020</t>
+          <t>25/11/2020</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148775536&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149087079&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Cabildo Sunlight</t>
+          <t>Estación de Transferencia de Residuos Sólidos Comuna de Cabildo</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -535,25 +535,25 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Cabildo Sunlight SpA</t>
+          <t>Ilustre Municipalidad de Cabildo</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>10000</v>
+        <v>1400</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>22/07/2020</t>
+          <t>21/10/2020</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147479274&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148775536&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ampliación de la Actividad de Transporte de Sustancias Peligrosas de ENAEX Servicios S.A.</t>
+          <t>Parque Fotovoltaico Cabildo Sunlight</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,20 +578,20 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Cabildo Sunlight SpA</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>25000</v>
+        <v>10000</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>07/01/2020</t>
+          <t>22/07/2020</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -601,7 +601,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145325740&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147479274&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Estación de Transferencia de Residuos Sólidos Comuna de Cabildo</t>
+          <t>Ampliación de la Actividad de Transporte de Sustancias Peligrosas de ENAEX Servicios S.A.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -626,30 +626,30 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Cabildo</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>3200</v>
+        <v>25000</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>20/12/2019</t>
+          <t>07/01/2020</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145227433&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145325740&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,12 +664,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Plan de Desarrollo de Largo Plazo - Compañia Minera Cerro Negro S.A.</t>
+          <t>Estación de Transferencia de Residuos Sólidos Comuna de Cabildo</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -679,25 +679,25 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Compañía Minera Cerro Negro S.A.</t>
+          <t>Ilustre Municipalidad de Cabildo</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>22000</v>
+        <v>3200</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>18/10/2018</t>
+          <t>20/12/2019</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141586281&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145227433&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,12 +712,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Parque Solar Los Paltos</t>
+          <t>Plan de Desarrollo de Largo Plazo - Compañia Minera Cerro Negro S.A.</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -727,25 +727,25 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>PARQUE SOLAR LOS PALTOS SPA</t>
+          <t>Compañía Minera Cerro Negro S.A.</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>16114</v>
+        <v>22000</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>20/07/2018</t>
+          <t>18/10/2018</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2140987045&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141586281&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Transporte de ácido sulfúrico regiones de Antofagasta Atacama Coquimbo y Valparaíso</t>
+          <t>Parque Solar Los Paltos</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -770,20 +770,20 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Eric Alexis Fernando Aravena Aravena, Transporte de Carga y Movimiento de Tierra, Empresa Individual de Responsabilidad Limitada</t>
+          <t>PARQUE SOLAR LOS PALTOS SPA</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>4000</v>
+        <v>16114</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>27/06/2018</t>
+          <t>20/07/2018</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -793,7 +793,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2140826557&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2140987045&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Peraltamiento Tranque de Relaves N°6</t>
+          <t>Transporte de ácido sulfúrico regiones de Antofagasta Atacama Coquimbo y Valparaíso</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -818,30 +818,30 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Compañía Minera Cerro Negro S.A.</t>
+          <t>Eric Alexis Fernando Aravena Aravena, Transporte de Carga y Movimiento de Tierra, Empresa Individual de Responsabilidad Limitada</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>800</v>
+        <v>4000</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>20/12/2017</t>
+          <t>27/06/2018</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2137969123&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2140826557&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>LOTEO DOÑA AURORA DEL QUEMADO DE CABILDO</t>
+          <t>Peraltamiento Tranque de Relaves N°6</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -871,25 +871,25 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>CARLOS SANTIAGO DIAZ ARAYA</t>
+          <t>Compañía Minera Cerro Negro S.A.</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>9500</v>
+        <v>800</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>21/07/2017</t>
+          <t>20/12/2017</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132540830&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2137969123&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Re-procesamiento y de Re-ubicación Relaves Inertizados de Cerro Negro</t>
+          <t>LOTEO DOÑA AURORA DEL QUEMADO DE CABILDO</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -919,25 +919,25 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Gestión Minera Sustentable SpA</t>
+          <t>CARLOS SANTIAGO DIAZ ARAYA</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>3500</v>
+        <v>9500</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>06/03/2017</t>
+          <t>21/07/2017</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132180559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132540830&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Continuidad Operacional Mina Carmen - Margarita</t>
+          <t>Re-procesamiento y de Re-ubicación Relaves Inertizados de Cerro Negro</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -967,25 +967,25 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Minera Las Cenizas S.A.</t>
+          <t>Gestión Minera Sustentable SpA</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>11000</v>
+        <v>3500</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>02/02/2017</t>
+          <t>06/03/2017</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132141791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132180559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Terrestre de Sustancias Químicas</t>
+          <t>Continuidad Operacional Mina Carmen - Margarita</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1010,20 +1010,20 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Minera Las Cenizas S.A.</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>22/08/2016</t>
+          <t>02/02/2017</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1033,7 +1033,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131697972&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132141791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Tranque Vitahue</t>
+          <t>Ampliación Transporte Terrestre de Sustancias Químicas</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1058,20 +1058,20 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Agrícola Fundo Vitahue Limitada</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>170</v>
+        <v>10000</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>18/03/2016</t>
+          <t>22/08/2016</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131185658&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131697972&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Parque Solar Fotovoltaico Cabilsol</t>
+          <t>Tranque Vitahue</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1111,15 +1111,15 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>GR Guayacan SpA</t>
+          <t>Agrícola Fundo Vitahue Limitada</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>11000</v>
+        <v>170</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>20/10/2015</t>
+          <t>18/03/2016</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1129,7 +1129,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130847353&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131185658&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Parque Solar Fotovoltaico Cabilsol</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1154,30 +1154,30 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>GR Guayacan SpA</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>5000</v>
+        <v>11000</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>26/01/2015</t>
+          <t>20/10/2015</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130159203&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130847353&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Peralte Tranque de Relave N°6</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1202,30 +1202,30 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Compañía Minera Cerro Negro S.A.</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>300</v>
+        <v>5000</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>19/01/2015</t>
+          <t>26/01/2015</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130144735&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130159203&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
+          <t>Peralte Tranque de Relave N°6</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1250,30 +1250,30 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Compañía Minera Cerro Negro S.A.</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>5000</v>
+        <v>300</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>26/12/2014</t>
+          <t>19/01/2015</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130144735&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Peralte Tranque de Relave N°6</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1298,30 +1298,30 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Compañía Minera Cerro Negro S.A.</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>300</v>
+        <v>5000</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>18/12/2014</t>
+          <t>26/12/2014</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130003811&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Peralte Tranque de Relave N°6</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1346,30 +1346,30 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Compañía Minera Cerro Negro S.A.</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>5000</v>
+        <v>300</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>20/11/2014</t>
+          <t>18/12/2014</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129965016&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130003811&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Modificación Transporte y Logística Interregional de Cargas y/o Sustancias Peligrosas.</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1399,25 +1399,25 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>6750</v>
+        <v>5000</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>13/11/2014</t>
+          <t>20/11/2014</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129725840&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129965016&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Modificación Transporte y Logística Interregional de Cargas y/o Sustancias Peligrosas.</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1447,25 +1447,25 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>5000</v>
+        <v>6750</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>05/11/2014</t>
+          <t>13/11/2014</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129895680&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129725840&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>REGULARIZACIÓN OPERACIÓN DE MINA PEUMO</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1490,30 +1490,30 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Compañía Minera La Patagua</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>04/09/2014</t>
+          <t>05/11/2014</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129758228&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129895680&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,12 +1528,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Faena Minera Cerro Negro</t>
+          <t>REGULARIZACIÓN OPERACIÓN DE MINA PEUMO</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1543,25 +1543,25 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Compañía Minera Cerro Negro S.A.</t>
+          <t>Compañía Minera La Patagua</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>16000</v>
+        <v>2000</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>04/07/2014</t>
+          <t>04/09/2014</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129583620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129758228&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,40 +1576,40 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y No Peligrosos entre las Regiones XV y X</t>
+          <t>Faena Minera Cerro Negro</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Compañía Minera Cerro Negro S.A.</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>5000</v>
+        <v>16000</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>30/06/2014</t>
+          <t>04/07/2014</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129237859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129583620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y No Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1639,15 +1639,15 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>VERATRANS SPA</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>800</v>
+        <v>5000</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>23/12/2013</t>
+          <t>30/06/2014</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128959410&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129237859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>REGULARIZACIÓN DE LA OPERACIÓN MINA PEUMO, COMUNA DE CABILDO, PROVINCIA DE PETORCA, V REGIÓNVALPARAÍSO</t>
+          <t>Transporte de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1682,16 +1682,16 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Compañía Minera La Patagua S.A.</t>
+          <t>VERATRANS SPA</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1705,7 +1705,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128955877&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128959410&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>REGULARIZACIÓN DE LA OPERACIÓN MINA PEUMO, COMUNA DE CABILDO, PROVINCIA DE PETORCA, V REGIÓNVALPARAÍSO</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1730,16 +1730,16 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Compañía Minera La Patagua S.A.</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1200</v>
+        <v>2000</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -1748,12 +1748,12 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128955877&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1783,11 +1783,11 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -1801,7 +1801,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>PARQUE SOLAR BARTOLILLO</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1826,20 +1826,20 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>BARTOLILLO SPA</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>16800</v>
+        <v>0</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>12/12/2013</t>
+          <t>23/12/2013</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -1849,7 +1849,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128899769&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos y No Peligrosos</t>
+          <t>PARQUE SOLAR BARTOLILLO</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1874,30 +1874,30 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>VERATRANS SPA</t>
+          <t>BARTOLILLO SPA</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>800</v>
+        <v>16800</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>20/11/2013</t>
+          <t>12/12/2013</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128831391&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128899769&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no peligrosos entre las Regiones XV y X</t>
+          <t>Transporte de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1927,15 +1927,15 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>VERATRANS SPA</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>5000</v>
+        <v>800</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>08/11/2013</t>
+          <t>20/11/2013</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -1945,7 +1945,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128788354&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128831391&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Regularización Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1975,15 +1975,15 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>06/06/2013</t>
+          <t>08/11/2013</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -1993,7 +1993,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8227033&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128788354&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
+          <t>Regularización Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2023,25 +2023,25 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Mauricio Salím Mahmud Vergara</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>06/05/2013</t>
+          <t>06/06/2013</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8126996&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8227033&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2071,25 +2071,25 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>Mauricio Salím Mahmud Vergara</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>2475</v>
+        <v>2500</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>17/04/2013</t>
+          <t>06/05/2013</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8057600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8126996&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Poder de Compra de Mineral / Cabildo- ENAMI</t>
+          <t>Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2114,30 +2114,30 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Empresa Nacional de Minería</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>8000</v>
+        <v>2475</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>18/03/2013</t>
+          <t>17/04/2013</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7971318&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8057600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Transporte de Productos Peligrosos TREXVAL S.A.</t>
+          <t>Poder de Compra de Mineral / Cabildo- ENAMI</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2162,30 +2162,30 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>Empresa Nacional de Minería</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>2475</v>
+        <v>8000</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>14/03/2013</t>
+          <t>18/03/2013</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7954924&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7971318&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Transportes de Sustancias Peligrosas TREXVAL S.A.</t>
+          <t>Transporte de Productos Peligrosos TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2215,15 +2215,15 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>TREXVAL S.A.</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>2450</v>
+        <v>2475</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>21/12/2012</t>
+          <t>14/03/2013</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -2233,7 +2233,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7643116&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7954924&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
+          <t>Transportes de Sustancias Peligrosas TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2263,25 +2263,25 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
+          <t>TREXVAL S.A.</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>15000</v>
+        <v>2450</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>31/07/2012</t>
+          <t>21/12/2012</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7643116&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Botadero de Ripios N° 2 Cerro Negro</t>
+          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2306,20 +2306,20 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Compañía Minera Cerro Negro S.A.</t>
+          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>1500</v>
+        <v>15000</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>06/07/2012</t>
+          <t>31/07/2012</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -2329,7 +2329,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6991437&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Mejoramiento Instalaciones Planta de Procesamiento de Minerales Cabildo</t>
+          <t>Botadero de Ripios N° 2 Cerro Negro</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2359,15 +2359,15 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Minera Las Cenizas S.A.</t>
+          <t>Compañía Minera Cerro Negro S.A.</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>22/06/2012</t>
+          <t>06/07/2012</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -2377,7 +2377,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7023812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6991437&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Mejoramiento Instalaciones Planta de Procesamiento de Minerales Cabildo</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2402,30 +2402,30 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>KDM SERVICIOS S.A.</t>
+          <t>Minera Las Cenizas S.A.</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>16/05/2012</t>
+          <t>22/06/2012</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7023812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,40 +2440,40 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Proyecto de Regularización de Cerro Negro</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Compañía Minera Cerro Negro S.A.</t>
+          <t>KDM SERVICIOS S.A.</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>04/04/2012</t>
+          <t>16/05/2012</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6675301&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,40 +2488,40 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
+          <t>Proyecto de Regularización de Cerro Negro</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Compañía Minera Cerro Negro S.A.</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>200</v>
+        <v>3500</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>27/03/2012</t>
+          <t>04/04/2012</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6675301&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2551,15 +2551,15 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>20/02/2012</t>
+          <t>27/03/2012</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -2569,7 +2569,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2599,15 +2599,15 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>13/01/2012</t>
+          <t>20/02/2012</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -2617,7 +2617,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2647,15 +2647,15 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>11/01/2012</t>
+          <t>13/01/2012</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -2665,7 +2665,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2695,15 +2695,15 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>11/01/2012</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -2713,7 +2713,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2743,15 +2743,15 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>08/09/2011</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -2761,7 +2761,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2799,7 +2799,7 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>12/05/2011</t>
+          <t>08/09/2011</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -2809,7 +2809,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Ampliación de rutas para el servicio de transporte, reciclaje y gestión de residuos industriales .</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2839,25 +2839,25 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>27/04/2011</t>
+          <t>12/05/2011</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5540550&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Ampliacion de rutas para el transporte, reciclaje y gestión de residuos industriales. .</t>
+          <t>Ampliación de rutas para el servicio de transporte, reciclaje y gestión de residuos industriales .</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2895,17 +2895,17 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>15/04/2011</t>
+          <t>27/04/2011</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5532880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5540550&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Enaex Servicios S.A</t>
+          <t>Ampliacion de rutas para el transporte, reciclaje y gestión de residuos industriales. .</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2935,25 +2935,25 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>12000</v>
+        <v>250</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>14/04/2011</t>
+          <t>15/04/2011</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5537784&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5532880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Modificación Disposición de Estériles Proyecto Medialuna-Chiringo</t>
+          <t>Transporte de Sustancias Peligrosas Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2978,20 +2978,20 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Compañía Minera Cerro Negro S.A.</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>3200</v>
+        <v>12000</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>04/04/2011</t>
+          <t>14/04/2011</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -3001,7 +3001,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5484316&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5537784&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Enaex Servicios S.A</t>
+          <t>Modificación Disposición de Estériles Proyecto Medialuna-Chiringo</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3026,30 +3026,30 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Compañía Minera Cerro Negro S.A.</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>12000</v>
+        <v>3200</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>29/03/2011</t>
+          <t>04/04/2011</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5485763&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5484316&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE ÁCIDO SULFURICO EN LA I, II, III, IV, V Y REGION METROPOLITANA</t>
+          <t>Transporte de Sustancias Peligrosas Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3079,25 +3079,25 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Transportes Hurcam Spa.</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>0</v>
+        <v>12000</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>19/11/2010</t>
+          <t>29/03/2011</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5076623&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5485763&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>transporte de acido sulfúrico en la I, II, III, IV, V Y Región Metropolitana</t>
+          <t>TRANSPORTE DE ÁCIDO SULFURICO EN LA I, II, III, IV, V Y REGION METROPOLITANA</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3131,21 +3131,21 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>05/11/2010</t>
+          <t>19/11/2010</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5044515&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5076623&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos</t>
+          <t>transporte de acido sulfúrico en la I, II, III, IV, V Y Región Metropolitana</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3175,25 +3175,25 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Transportes Hurcam Spa.</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>1750</v>
+        <v>1</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>23/08/2010</t>
+          <t>05/11/2010</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4865154&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5044515&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Ácido Sulfúrico a granel entre la Regiones de Arica-Parinacota y de Valparaíso, incluida la Región Metropolitana</t>
+          <t>Transporte Terrestre de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3223,15 +3223,15 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>SOTRASER S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>410</v>
+        <v>1750</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>30/06/2010</t>
+          <t>23/08/2010</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -3241,7 +3241,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4715470&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4865154&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Explotación de Minerales Mina Don Jaime</t>
+          <t>Transporte Terrestre de Ácido Sulfúrico a granel entre la Regiones de Arica-Parinacota y de Valparaíso, incluida la Región Metropolitana</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3266,20 +3266,20 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Minera Las Cenizas S.A.</t>
+          <t>SOTRASER S.A.</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>10000</v>
+        <v>410</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>10/06/2010</t>
+          <t>30/06/2010</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -3289,7 +3289,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4643665&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4715470&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Expansión Mina Carmen - Margarita</t>
+          <t>Explotación de Minerales Mina Don Jaime</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3323,11 +3323,11 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>450</v>
+        <v>10000</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>14/05/2010</t>
+          <t>10/06/2010</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -3337,7 +3337,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4512582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4643665&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
+          <t>Expansión Mina Carmen - Margarita</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3362,20 +3362,20 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Minera Las Cenizas S.A.</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>4050</v>
+        <v>450</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>03/05/2010</t>
+          <t>14/05/2010</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -3385,7 +3385,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4512582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3415,15 +3415,15 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>250</v>
+        <v>4050</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>26/04/2010</t>
+          <t>03/05/2010</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -3433,7 +3433,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Transporte de Cargas por Carretera</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3463,25 +3463,25 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>31/03/2010</t>
+          <t>26/04/2010</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Cargas por Carretera</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3511,15 +3511,15 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>24/03/2010</t>
+          <t>31/03/2010</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -3529,7 +3529,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Transporte de residuos peligrosos, Transportes Bello</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3567,7 +3567,7 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>18/02/2010</t>
+          <t>24/03/2010</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -3577,7 +3577,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4348527&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Transporte de residuos peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3607,25 +3607,25 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>250</v>
+        <v>4050</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>10/02/2010</t>
+          <t>18/02/2010</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4348527&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3655,15 +3655,15 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>22/01/2010</t>
+          <t>10/02/2010</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -3673,7 +3673,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3703,7 +3703,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F70" t="n">
@@ -3716,12 +3716,12 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3759,17 +3759,17 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>15/01/2010</t>
+          <t>22/01/2010</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3799,25 +3799,25 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Transportes TREPE Ltda.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>08/01/2010</t>
+          <t>15/01/2010</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, Región Metropolitana y VI (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3847,15 +3847,15 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Rojas y Donaire Cía. Ltda.</t>
+          <t>Transportes TREPE Ltda.</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>2000</v>
+        <v>350</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>18/11/2009</t>
+          <t>08/01/2010</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -3865,7 +3865,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4151517&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, Región Metropolitana y VI (e-seia)</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3895,25 +3895,25 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Rojas y Donaire Cía. Ltda.</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>250</v>
+        <v>2000</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>15/10/2009</t>
+          <t>18/11/2009</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4108064&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4151517&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3951,7 +3951,7 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>23/09/2009</t>
+          <t>15/10/2009</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -3961,7 +3961,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4108064&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Transporte de Combustibles y Residuos Industriales, Peligrosos y No Peligrosos entre Arica y Puerto Montt (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3991,25 +3991,25 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Transportes Centro Sur Norte S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>27/07/2009</t>
+          <t>23/09/2009</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3893261&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto Interregional de Transporte de Combustibles y Residuos Industriales, Peligrosos y No Peligrosos entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4039,15 +4039,15 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Transportes Centro Sur Norte S.A.</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>27/07/2009</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
@@ -4057,7 +4057,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3893261&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>TRANSPORTE SE SUSTANCIAS PELIGROSAS ENTRE LAS REGIÓNES I, II, III, IV, V, REGIÓN METROPOLITANA y VI REGION (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4087,25 +4087,25 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Rojas y Donaire Cía. Ltda.</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>2000</v>
+        <v>22</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>02/02/2009</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3533261&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>TRANSPORTE SE SUSTANCIAS PELIGROSAS ENTRE LAS REGIÓNES I, II, III, IV, V, REGIÓN METROPOLITANA y VI REGION (e-seia)</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4135,15 +4135,15 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Rojas y Donaire Cía. Ltda.</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>23/01/2009</t>
+          <t>02/02/2009</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -4153,7 +4153,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3533261&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4191,17 +4191,17 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>27/11/2008</t>
+          <t>23/01/2009</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4231,25 +4231,25 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>30/10/2008</t>
+          <t>27/11/2008</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4287,17 +4287,17 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>15/10/2008</t>
+          <t>30/10/2008</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4327,11 +4327,11 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
@@ -4340,12 +4340,12 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4383,7 +4383,7 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>01/10/2008</t>
+          <t>15/10/2008</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
@@ -4393,7 +4393,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Proyecto Expansion Rajo Medialuna - Chiringo (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4418,30 +4418,30 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Compañía Minera Cerro Negro S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>5329</v>
+        <v>250</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>16/09/2008</t>
+          <t>01/10/2008</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3190496&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>Proyecto Expansion Rajo Medialuna - Chiringo (e-seia)</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4466,30 +4466,30 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Compañía Minera Cerro Negro S.A.</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>250</v>
+        <v>5329</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>20/08/2008</t>
+          <t>16/09/2008</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3190496&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Transporte Cinco (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4519,25 +4519,25 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Transportes Cinco Limitada</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>3408</v>
+        <v>250</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>18/08/2008</t>
+          <t>20/08/2008</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3111632&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas, Transporte Cinco (e-seia)</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4567,15 +4567,15 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Transportes Cinco Limitada</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>80</v>
+        <v>3408</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>28/07/2008</t>
+          <t>18/08/2008</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
@@ -4585,7 +4585,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3066713&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3111632&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Regularización y Expansión Rajo Medialuna - Chiringo (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4610,30 +4610,30 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Compañía Minera Cerro Negro S.A.</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>5329</v>
+        <v>80</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>21/07/2008</t>
+          <t>28/07/2008</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3045082&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3066713&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Regularización y Expansión Rajo Medialuna - Chiringo (e-seia)</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4658,20 +4658,20 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Compañía Minera Cerro Negro S.A.</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>80</v>
+        <v>5329</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>14/07/2008</t>
+          <t>21/07/2008</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
@@ -4681,7 +4681,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3045082&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4711,25 +4711,25 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>09/07/2008</t>
+          <t>14/07/2008</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3024415&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4744,7 +4744,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4759,25 +4759,25 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Víctor Martínez Salcedo</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>03/07/2008</t>
+          <t>09/07/2008</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3014508&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3024415&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4792,7 +4792,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4807,25 +4807,25 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Víctor Martínez Salcedo</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>30/06/2008</t>
+          <t>03/07/2008</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3004520&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3014508&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4840,7 +4840,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
+          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4855,25 +4855,25 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Cavilolén S.A.</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>10/06/2008</t>
+          <t>30/06/2008</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3004520&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE ÁCIDO SULFURICO A GRANEL ENTRE LA PRIMERA Y DÉCIMA REGIONES DE CHILE (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4903,15 +4903,15 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>Sociedad de Transportes Cavilolén S.A.</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>21/02/2008</t>
+          <t>10/06/2008</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
@@ -4921,7 +4921,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2688254&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE ÁCIDO SULFURICO A GRANEL ENTRE LA PRIMERA Y DÉCIMA REGIONES DE CHILE (e-seia)</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4951,15 +4951,15 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>429</v>
+        <v>0</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>02/11/2007</t>
+          <t>21/02/2008</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
@@ -4969,7 +4969,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2688254&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>PROYECTO REGULARIZACION BOTADERO DE RIPIOS (e-seia)</t>
+          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4994,20 +4994,20 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Compañía Minera Cerro Negro S.A.</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>327</v>
+        <v>429</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>24/10/2007</t>
+          <t>02/11/2007</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
@@ -5017,7 +5017,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2422784&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>PROYECTO REGULARIZACION BOTADERO DE RIPIOS (e-seia)</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5042,30 +5042,30 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Compañía Minera Cerro Negro S.A.</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>234</v>
+        <v>327</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>24/10/2007</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2422784&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5080,7 +5080,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>PROYECTO AMPLIACIÓN DE TRANQUES DE RELAVES Nº6 (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5090,30 +5090,30 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Compañía Minera Cerro Negro S.A.</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>1200</v>
+        <v>234</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2313324&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Regularización Botadero de Ripios (e-seia)</t>
+          <t>PROYECTO AMPLIACIÓN DE TRANQUES DE RELAVES Nº6 (e-seia)</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5147,7 +5147,7 @@
         </is>
       </c>
       <c r="F100" t="n">
-        <v>327</v>
+        <v>1200</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
@@ -5156,12 +5156,12 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2313389&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2313324&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Regularización Botadero de Ripios (e-seia)</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5186,16 +5186,16 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Compañía Minera Cerro Negro S.A.</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>10</v>
+        <v>327</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
@@ -5209,7 +5209,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2313389&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5239,15 +5239,15 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
@@ -5257,7 +5257,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5287,25 +5287,25 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>1</v>
+        <v>300</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>16/03/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Transporte, Reciclaje y Gestión de Residuos Industriales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5335,25 +5335,25 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>210</v>
+        <v>1</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>20/02/2007</t>
+          <t>16/03/2007</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2002494&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Transporte, Reciclaje y Gestión de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5383,15 +5383,15 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>500</v>
+        <v>210</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>13/02/2007</t>
+          <t>20/02/2007</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
@@ -5401,7 +5401,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2002494&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5431,25 +5431,25 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>13/02/2007</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5487,17 +5487,17 @@
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5512,7 +5512,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Modificación al Plan Regulador Metropolitano de Valparaíso Satélite Petorca - Cabildo (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5522,30 +5522,30 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región de Valparaíso</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>19/12/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1870997&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5560,7 +5560,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
+          <t>Modificación al Plan Regulador Metropolitano de Valparaíso Satélite Petorca - Cabildo (e-seia)</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5570,20 +5570,20 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>TRANSPORTES INOSTROZA LTDA</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región de Valparaíso</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>07/12/2006</t>
+          <t>19/12/2006</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
@@ -5593,7 +5593,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1870997&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5608,7 +5608,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las regiones I, II, III, IV, VII y Región Metropolitana (e-seia)</t>
+          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5623,15 +5623,15 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTES INOSTROZA LTDA</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>22/11/2006</t>
+          <t>07/12/2006</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
@@ -5641,7 +5641,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1821133&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5656,7 +5656,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las regiones I, II, III, IV, VII y Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5679,17 +5679,17 @@
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>10/11/2006</t>
+          <t>22/11/2006</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1821133&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5704,7 +5704,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, VI, VII y RM, "Transportes Bello" (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5727,7 +5727,7 @@
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>02/11/2006</t>
+          <t>10/11/2006</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
@@ -5737,7 +5737,7 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1773812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5752,7 +5752,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, VI, VII y RM, "Transportes Bello" (e-seia)</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5767,25 +5767,25 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>12/10/2006</t>
+          <t>02/11/2006</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1773812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5800,30 +5800,30 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Depósito de Pasta - Cabildo</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Minera Las Cenizas S.A.</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>6000</v>
+        <v>250</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>11/10/2006</t>
+          <t>12/10/2006</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
@@ -5833,7 +5833,7 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1751213&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5848,12 +5848,12 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DEL EFLUENTE DE LAVADO DE LIMONES (e-seia)</t>
+          <t>Depósito de Pasta - Cabildo</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -5863,15 +5863,15 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Agricola y Comercial CABILFRUT S.A.</t>
+          <t>Minera Las Cenizas S.A.</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>25</v>
+        <v>6000</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>14/08/2006</t>
+          <t>11/10/2006</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
@@ -5881,7 +5881,7 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1600036&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1751213&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Transporte de Combustibles (e-seia)</t>
+          <t>TRATAMIENTO DEL EFLUENTE DE LAVADO DE LIMONES (e-seia)</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5906,30 +5906,30 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>Agricola y Comercial CABILFRUT S.A.</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>500</v>
+        <v>25</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>31/03/2006</t>
+          <t>14/08/2006</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1600036&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5944,7 +5944,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Transporte de Combustibles (e-seia)</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5959,25 +5959,25 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>4000</v>
+        <v>500</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>31/03/2006</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5992,7 +5992,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>PLAN REGIONAL DE DESARROLLO URBANO Y TERRITORIAL, REGIÓN DE VALPARAÍSO (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6002,30 +6002,30 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región de Valparaíso</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>08/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1331410&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6040,7 +6040,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>PLAN REGIONAL DE DESARROLLO URBANO Y TERRITORIAL, REGIÓN DE VALPARAÍSO (e-seia)</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6050,30 +6050,30 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región de Valparaíso</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>08/03/2006</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1331410&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6088,7 +6088,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6103,25 +6103,25 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Degraf Limitada</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>72</v>
+        <v>4000</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>05/01/2006</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6136,7 +6136,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6151,7 +6151,7 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Juan Pablo Pérez Reyes</t>
+          <t>Sociedad Comercial Degraf Limitada</t>
         </is>
       </c>
       <c r="F121" t="n">
@@ -6159,17 +6159,17 @@
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>20/12/2005</t>
+          <t>05/01/2006</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6184,7 +6184,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano y Territorial PRDUT V, Región de Valparaíso (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6194,30 +6194,30 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>SEREMI MINVU V REGIÓN</t>
+          <t>Juan Pablo Pérez Reyes</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>16/12/2005</t>
+          <t>20/12/2005</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1169202&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6232,7 +6232,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Transporte de Productos Industriales por las Regiones I, II, III, IV, V, VI y Región Metropolitana (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano y Territorial PRDUT V, Región de Valparaíso (e-seia)</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6242,12 +6242,12 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Transportes Reciclar Limitada</t>
+          <t>SEREMI MINVU V REGIÓN</t>
         </is>
       </c>
       <c r="F123" t="n">
@@ -6255,17 +6255,17 @@
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>12/12/2005</t>
+          <t>16/12/2005</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1150168&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1169202&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -6280,7 +6280,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
+          <t>Transporte de Productos Industriales por las Regiones I, II, III, IV, V, VI y Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6295,15 +6295,15 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>BATERIAS COSMOS LTDA</t>
+          <t>Transportes Reciclar Limitada</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>11/11/2005</t>
+          <t>12/12/2005</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
@@ -6313,7 +6313,7 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1150168&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -6328,7 +6328,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE BORRAS PLOMADAS Y OTROS RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6343,15 +6343,15 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Sociedad de Representaciones Ltda.</t>
+          <t>BATERIAS COSMOS LTDA</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>20/10/2005</t>
+          <t>11/11/2005</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
@@ -6361,7 +6361,7 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1069115&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6376,7 +6376,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE BORRAS PLOMADAS Y OTROS RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6391,15 +6391,15 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Sociedad de Representaciones Ltda.</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>08/09/2005</t>
+          <t>20/10/2005</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
@@ -6409,7 +6409,7 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1069115&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6439,11 +6439,11 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
@@ -6457,7 +6457,7 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -6472,7 +6472,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6487,11 +6487,11 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
@@ -6505,7 +6505,7 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6520,7 +6520,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>D.I.A. para obtener ampliacion de capacidad para disponer residuos sólidos domiciliarios y asimilables en la comuna de cabildo (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6530,30 +6530,30 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Julia Haydeé Olivares Vega</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>29/04/2005</t>
+          <t>08/09/2005</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=643104&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6568,7 +6568,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>PROYECTO DEPOSITACIÓN DE RELAVES ESPESADOS INTERIOR MINA CABILDO (e-seia)</t>
+          <t>D.I.A. para obtener ampliacion de capacidad para disponer residuos sólidos domiciliarios y asimilables en la comuna de cabildo (e-seia)</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6583,25 +6583,25 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Minera Las Cenizas S.A.</t>
+          <t>Julia Haydeé Olivares Vega</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>27/01/2005</t>
+          <t>29/04/2005</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=580146&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=643104&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -6616,7 +6616,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Proyecto Botadero Farellones II (e-seia)</t>
+          <t>PROYECTO DEPOSITACIÓN DE RELAVES ESPESADOS INTERIOR MINA CABILDO (e-seia)</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6635,11 +6635,11 @@
         </is>
       </c>
       <c r="F131" t="n">
-        <v>45</v>
+        <v>4000</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>23/09/2004</t>
+          <t>27/01/2005</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
@@ -6649,7 +6649,7 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=456985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=580146&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6664,7 +6664,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Proyecto Botadero Las Guías II (e-seia)</t>
+          <t>Proyecto Botadero Farellones II (e-seia)</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6683,7 +6683,7 @@
         </is>
       </c>
       <c r="F132" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
@@ -6697,7 +6697,7 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=457018&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=456985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6731,21 +6731,21 @@
         </is>
       </c>
       <c r="F133" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>14/09/2004</t>
+          <t>23/09/2004</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=447934&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=457018&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6760,7 +6760,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Proyecto Botadero Farellones II (e-seia)</t>
+          <t>Proyecto Botadero Las Guías II (e-seia)</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6779,11 +6779,11 @@
         </is>
       </c>
       <c r="F134" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>10/09/2004</t>
+          <t>14/09/2004</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
@@ -6793,7 +6793,7 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=446795&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=447934&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Transporte Rodoviario de Cloro en y entre las Regiones II y X (e-seia)</t>
+          <t>Proyecto Botadero Farellones II (e-seia)</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6818,30 +6818,30 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>Minera Las Cenizas S.A.</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>09/08/2004</t>
+          <t>10/09/2004</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=415850&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=446795&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6856,7 +6856,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Sistema de Alcantarillado para la Localidad de Artificio de Cabildo</t>
+          <t>Transporte Rodoviario de Cloro en y entre las Regiones II y X (e-seia)</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6866,20 +6866,20 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidd de Cabildo</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>1900</v>
+        <v>0</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>04/10/2000</t>
+          <t>09/08/2004</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
@@ -6889,7 +6889,7 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3288&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=415850&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6904,43 +6904,91 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
+          <t>Sistema de Alcantarillado para la Localidad de Artificio de Cabildo</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>Quinta</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>Ilustre Municipalidd de Cabildo</t>
+        </is>
+      </c>
+      <c r="F137" t="n">
+        <v>1900</v>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>04/10/2000</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3288&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>Cabildo</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>137</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
           <t>Normalización de la Operación de la Planta SX</t>
         </is>
       </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
-      <c r="D137" t="inlineStr">
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
         <is>
           <t>Quinta</t>
         </is>
       </c>
-      <c r="E137" t="inlineStr">
+      <c r="E138" t="inlineStr">
         <is>
           <t>Compañía Minera Cerro Negro S.A.</t>
         </is>
       </c>
-      <c r="F137" t="n">
+      <c r="F138" t="n">
         <v>1000</v>
       </c>
-      <c r="G137" t="inlineStr">
+      <c r="G138" t="inlineStr">
         <is>
           <t>17/03/2000</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr">
+      <c r="H138" t="inlineStr">
         <is>
           <t>Aprobado</t>
         </is>
       </c>
-      <c r="I137" t="inlineStr">
+      <c r="I138" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2729&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J137" t="inlineStr">
+      <c r="J138" t="inlineStr">
         <is>
           <t>Cabildo</t>
         </is>

--- a/data/Cabildo.xlsx
+++ b/data/Cabildo.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>09/05/2022</t>
+          <t>16/05/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Cabildo.xlsx
+++ b/data/Cabildo.xlsx
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4327,11 +4327,11 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
@@ -4340,12 +4340,12 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4375,11 +4375,11 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
@@ -4388,12 +4388,12 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>PROYECTO AMPLIACIÓN DE TRANQUES DE RELAVES Nº6 (e-seia)</t>
+          <t>Regularización Botadero de Ripios (e-seia)</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5147,7 +5147,7 @@
         </is>
       </c>
       <c r="F100" t="n">
-        <v>1200</v>
+        <v>327</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
@@ -5156,12 +5156,12 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2313324&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2313389&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Regularización Botadero de Ripios (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5186,16 +5186,16 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Compañía Minera Cerro Negro S.A.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>327</v>
+        <v>10</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
@@ -5209,7 +5209,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2313389&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>PROYECTO AMPLIACIÓN DE TRANQUES DE RELAVES Nº6 (e-seia)</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5234,16 +5234,16 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Compañía Minera Cerro Negro S.A.</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>10</v>
+        <v>1200</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
@@ -5252,12 +5252,12 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2313324&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">

--- a/data/Cabildo.xlsx
+++ b/data/Cabildo.xlsx
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4327,11 +4327,11 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
@@ -4340,12 +4340,12 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4375,11 +4375,11 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
@@ -4388,12 +4388,12 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Regularización Botadero de Ripios (e-seia)</t>
+          <t>PROYECTO AMPLIACIÓN DE TRANQUES DE RELAVES Nº6 (e-seia)</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5147,7 +5147,7 @@
         </is>
       </c>
       <c r="F100" t="n">
-        <v>327</v>
+        <v>1200</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
@@ -5156,12 +5156,12 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2313389&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2313324&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Regularización Botadero de Ripios (e-seia)</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5186,16 +5186,16 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Compañía Minera Cerro Negro S.A.</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>10</v>
+        <v>327</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
@@ -5209,7 +5209,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2313389&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>PROYECTO AMPLIACIÓN DE TRANQUES DE RELAVES Nº6 (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5234,16 +5234,16 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Compañía Minera Cerro Negro S.A.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>1200</v>
+        <v>10</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
@@ -5252,12 +5252,12 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2313324&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">

--- a/data/Cabildo.xlsx
+++ b/data/Cabildo.xlsx
@@ -740,7 +740,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">

--- a/data/Cabildo.xlsx
+++ b/data/Cabildo.xlsx
@@ -487,7 +487,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>ORION POWER S.A.</t>
+          <t>ORION POWER SpA</t>
         </is>
       </c>
       <c r="F3" t="n">

--- a/data/Cabildo.xlsx
+++ b/data/Cabildo.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J138"/>
+  <dimension ref="A1:J139"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Disposición de Relave en Pasta en Interior Mina</t>
+          <t>Parque Fotovoltaico Cabildo Solar</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Minera Las Cenizas S.A.</t>
+          <t>LUZ DE SOL 5 SPA</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>10000</v>
+        <v>60000</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>16/05/2022</t>
+          <t>18/08/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155749878&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159819319&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Proyecto Jardín Solar Petorca</t>
+          <t>Disposición de Relave en Pasta en Interior Mina</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,25 +487,25 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>ORION POWER SpA</t>
+          <t>Minera Las Cenizas S.A.</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>25/11/2020</t>
+          <t>16/05/2022</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149087079&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155749878&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Estación de Transferencia de Residuos Sólidos Comuna de Cabildo</t>
+          <t>Proyecto Jardín Solar Petorca</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -535,25 +535,25 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Cabildo</t>
+          <t>ORION POWER SpA</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1400</v>
+        <v>12000</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>21/10/2020</t>
+          <t>25/11/2020</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148775536&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149087079&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Cabildo Sunlight</t>
+          <t>Estación de Transferencia de Residuos Sólidos Comuna de Cabildo</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,25 +583,25 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Cabildo Sunlight SpA</t>
+          <t>Ilustre Municipalidad de Cabildo</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>10000</v>
+        <v>1400</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>22/07/2020</t>
+          <t>21/10/2020</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147479274&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148775536&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ampliación de la Actividad de Transporte de Sustancias Peligrosas de ENAEX Servicios S.A.</t>
+          <t>Parque Fotovoltaico Cabildo Sunlight</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -626,20 +626,20 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Cabildo Sunlight SpA</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>25000</v>
+        <v>10000</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>07/01/2020</t>
+          <t>22/07/2020</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -649,7 +649,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145325740&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147479274&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Estación de Transferencia de Residuos Sólidos Comuna de Cabildo</t>
+          <t>Ampliación de la Actividad de Transporte de Sustancias Peligrosas de ENAEX Servicios S.A.</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -674,30 +674,30 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Cabildo</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>3200</v>
+        <v>25000</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>20/12/2019</t>
+          <t>07/01/2020</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145227433&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145325740&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,12 +712,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Plan de Desarrollo de Largo Plazo - Compañia Minera Cerro Negro S.A.</t>
+          <t>Estación de Transferencia de Residuos Sólidos Comuna de Cabildo</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -727,25 +727,25 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Compañía Minera Cerro Negro S.A.</t>
+          <t>Ilustre Municipalidad de Cabildo</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>22000</v>
+        <v>3200</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>18/10/2018</t>
+          <t>20/12/2019</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141586281&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145227433&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,12 +760,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Parque Solar Los Paltos</t>
+          <t>Plan de Desarrollo de Largo Plazo - Compañia Minera Cerro Negro S.A.</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -775,25 +775,25 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>PARQUE SOLAR LOS PALTOS SPA</t>
+          <t>Compañía Minera Cerro Negro S.A.</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>16114</v>
+        <v>22000</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>20/07/2018</t>
+          <t>18/10/2018</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2140987045&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141586281&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Transporte de ácido sulfúrico regiones de Antofagasta Atacama Coquimbo y Valparaíso</t>
+          <t>Parque Solar Los Paltos</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -818,20 +818,20 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Eric Alexis Fernando Aravena Aravena, Transporte de Carga y Movimiento de Tierra, Empresa Individual de Responsabilidad Limitada</t>
+          <t>PARQUE SOLAR LOS PALTOS SPA</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>4000</v>
+        <v>16114</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>27/06/2018</t>
+          <t>20/07/2018</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -841,7 +841,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2140826557&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2140987045&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Peraltamiento Tranque de Relaves N°6</t>
+          <t>Transporte de ácido sulfúrico regiones de Antofagasta Atacama Coquimbo y Valparaíso</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -866,30 +866,30 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Compañía Minera Cerro Negro S.A.</t>
+          <t>Eric Alexis Fernando Aravena Aravena, Transporte de Carga y Movimiento de Tierra, Empresa Individual de Responsabilidad Limitada</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>800</v>
+        <v>4000</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>20/12/2017</t>
+          <t>27/06/2018</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2137969123&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2140826557&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>LOTEO DOÑA AURORA DEL QUEMADO DE CABILDO</t>
+          <t>Peraltamiento Tranque de Relaves N°6</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -919,25 +919,25 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>CARLOS SANTIAGO DIAZ ARAYA</t>
+          <t>Compañía Minera Cerro Negro S.A.</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>9500</v>
+        <v>800</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>21/07/2017</t>
+          <t>20/12/2017</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132540830&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2137969123&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Re-procesamiento y de Re-ubicación Relaves Inertizados de Cerro Negro</t>
+          <t>LOTEO DOÑA AURORA DEL QUEMADO DE CABILDO</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -967,25 +967,25 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Gestión Minera Sustentable SpA</t>
+          <t>CARLOS SANTIAGO DIAZ ARAYA</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>3500</v>
+        <v>9500</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>06/03/2017</t>
+          <t>21/07/2017</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132180559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132540830&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Continuidad Operacional Mina Carmen - Margarita</t>
+          <t>Re-procesamiento y de Re-ubicación Relaves Inertizados de Cerro Negro</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1015,25 +1015,25 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Minera Las Cenizas S.A.</t>
+          <t>Gestión Minera Sustentable SpA</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>11000</v>
+        <v>3500</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>02/02/2017</t>
+          <t>06/03/2017</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132141791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132180559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Terrestre de Sustancias Químicas</t>
+          <t>Continuidad Operacional Mina Carmen - Margarita</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1058,20 +1058,20 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Minera Las Cenizas S.A.</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>22/08/2016</t>
+          <t>02/02/2017</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131697972&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132141791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Tranque Vitahue</t>
+          <t>Ampliación Transporte Terrestre de Sustancias Químicas</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1106,20 +1106,20 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Agrícola Fundo Vitahue Limitada</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>170</v>
+        <v>10000</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>18/03/2016</t>
+          <t>22/08/2016</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1129,7 +1129,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131185658&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131697972&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Parque Solar Fotovoltaico Cabilsol</t>
+          <t>Tranque Vitahue</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1159,15 +1159,15 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>GR Guayacan SpA</t>
+          <t>Agrícola Fundo Vitahue Limitada</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>11000</v>
+        <v>170</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>20/10/2015</t>
+          <t>18/03/2016</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1177,7 +1177,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130847353&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131185658&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Parque Solar Fotovoltaico Cabilsol</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1202,30 +1202,30 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>GR Guayacan SpA</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>5000</v>
+        <v>11000</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>26/01/2015</t>
+          <t>20/10/2015</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130159203&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130847353&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Peralte Tranque de Relave N°6</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1250,30 +1250,30 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Compañía Minera Cerro Negro S.A.</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>300</v>
+        <v>5000</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>19/01/2015</t>
+          <t>26/01/2015</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130144735&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130159203&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
+          <t>Peralte Tranque de Relave N°6</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1298,30 +1298,30 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Compañía Minera Cerro Negro S.A.</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>5000</v>
+        <v>300</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>26/12/2014</t>
+          <t>19/01/2015</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130144735&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Peralte Tranque de Relave N°6</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1346,30 +1346,30 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Compañía Minera Cerro Negro S.A.</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>300</v>
+        <v>5000</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>18/12/2014</t>
+          <t>26/12/2014</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130003811&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Peralte Tranque de Relave N°6</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1394,30 +1394,30 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Compañía Minera Cerro Negro S.A.</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>5000</v>
+        <v>300</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>20/11/2014</t>
+          <t>18/12/2014</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129965016&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130003811&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Modificación Transporte y Logística Interregional de Cargas y/o Sustancias Peligrosas.</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1447,25 +1447,25 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>6750</v>
+        <v>5000</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>13/11/2014</t>
+          <t>20/11/2014</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129725840&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129965016&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Modificación Transporte y Logística Interregional de Cargas y/o Sustancias Peligrosas.</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1495,25 +1495,25 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>5000</v>
+        <v>6750</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>05/11/2014</t>
+          <t>13/11/2014</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129895680&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129725840&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>REGULARIZACIÓN OPERACIÓN DE MINA PEUMO</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1538,30 +1538,30 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Compañía Minera La Patagua</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>04/09/2014</t>
+          <t>05/11/2014</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129758228&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129895680&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,12 +1576,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Faena Minera Cerro Negro</t>
+          <t>REGULARIZACIÓN OPERACIÓN DE MINA PEUMO</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1591,25 +1591,25 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Compañía Minera Cerro Negro S.A.</t>
+          <t>Compañía Minera La Patagua</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>16000</v>
+        <v>2000</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>04/07/2014</t>
+          <t>04/09/2014</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129583620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129758228&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,40 +1624,40 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y No Peligrosos entre las Regiones XV y X</t>
+          <t>Faena Minera Cerro Negro</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Compañía Minera Cerro Negro S.A.</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>5000</v>
+        <v>16000</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>30/06/2014</t>
+          <t>04/07/2014</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129237859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129583620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y No Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1687,15 +1687,15 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>VERATRANS SPA</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>800</v>
+        <v>5000</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>23/12/2013</t>
+          <t>30/06/2014</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -1705,7 +1705,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128959410&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129237859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>REGULARIZACIÓN DE LA OPERACIÓN MINA PEUMO, COMUNA DE CABILDO, PROVINCIA DE PETORCA, V REGIÓNVALPARAÍSO</t>
+          <t>Transporte de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1730,16 +1730,16 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Compañía Minera La Patagua S.A.</t>
+          <t>VERATRANS SPA</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -1753,7 +1753,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128955877&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128959410&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>REGULARIZACIÓN DE LA OPERACIÓN MINA PEUMO, COMUNA DE CABILDO, PROVINCIA DE PETORCA, V REGIÓNVALPARAÍSO</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1778,16 +1778,16 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Compañía Minera La Patagua S.A.</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1200</v>
+        <v>2000</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -1796,12 +1796,12 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128955877&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1831,11 +1831,11 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -1849,7 +1849,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>PARQUE SOLAR BARTOLILLO</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1874,20 +1874,20 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>BARTOLILLO SPA</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>16800</v>
+        <v>0</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>12/12/2013</t>
+          <t>23/12/2013</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -1897,7 +1897,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128899769&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos y No Peligrosos</t>
+          <t>PARQUE SOLAR BARTOLILLO</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1922,30 +1922,30 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>VERATRANS SPA</t>
+          <t>BARTOLILLO SPA</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>800</v>
+        <v>16800</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>20/11/2013</t>
+          <t>12/12/2013</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128831391&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128899769&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no peligrosos entre las Regiones XV y X</t>
+          <t>Transporte de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1975,15 +1975,15 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>VERATRANS SPA</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>5000</v>
+        <v>800</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>08/11/2013</t>
+          <t>20/11/2013</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -1993,7 +1993,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128788354&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128831391&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Regularización Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2023,15 +2023,15 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>06/06/2013</t>
+          <t>08/11/2013</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -2041,7 +2041,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8227033&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128788354&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
+          <t>Regularización Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2071,25 +2071,25 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Mauricio Salím Mahmud Vergara</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>06/05/2013</t>
+          <t>06/06/2013</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8126996&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8227033&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2119,25 +2119,25 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>Mauricio Salím Mahmud Vergara</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>2475</v>
+        <v>2500</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>17/04/2013</t>
+          <t>06/05/2013</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8057600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8126996&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Poder de Compra de Mineral / Cabildo- ENAMI</t>
+          <t>Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2162,30 +2162,30 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Empresa Nacional de Minería</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>8000</v>
+        <v>2475</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>18/03/2013</t>
+          <t>17/04/2013</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7971318&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8057600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Transporte de Productos Peligrosos TREXVAL S.A.</t>
+          <t>Poder de Compra de Mineral / Cabildo- ENAMI</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2210,30 +2210,30 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>Empresa Nacional de Minería</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>2475</v>
+        <v>8000</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>14/03/2013</t>
+          <t>18/03/2013</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7954924&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7971318&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Transportes de Sustancias Peligrosas TREXVAL S.A.</t>
+          <t>Transporte de Productos Peligrosos TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2263,15 +2263,15 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>TREXVAL S.A.</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>2450</v>
+        <v>2475</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>21/12/2012</t>
+          <t>14/03/2013</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -2281,7 +2281,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7643116&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7954924&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
+          <t>Transportes de Sustancias Peligrosas TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2311,25 +2311,25 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
+          <t>TREXVAL S.A.</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>15000</v>
+        <v>2450</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>31/07/2012</t>
+          <t>21/12/2012</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7643116&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Botadero de Ripios N° 2 Cerro Negro</t>
+          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2354,20 +2354,20 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Compañía Minera Cerro Negro S.A.</t>
+          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>1500</v>
+        <v>15000</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>06/07/2012</t>
+          <t>31/07/2012</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -2377,7 +2377,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6991437&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Mejoramiento Instalaciones Planta de Procesamiento de Minerales Cabildo</t>
+          <t>Botadero de Ripios N° 2 Cerro Negro</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2407,15 +2407,15 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Minera Las Cenizas S.A.</t>
+          <t>Compañía Minera Cerro Negro S.A.</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>22/06/2012</t>
+          <t>06/07/2012</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -2425,7 +2425,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7023812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6991437&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Mejoramiento Instalaciones Planta de Procesamiento de Minerales Cabildo</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2450,30 +2450,30 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>KDM SERVICIOS S.A.</t>
+          <t>Minera Las Cenizas S.A.</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>16/05/2012</t>
+          <t>22/06/2012</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7023812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,40 +2488,40 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Proyecto de Regularización de Cerro Negro</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Compañía Minera Cerro Negro S.A.</t>
+          <t>KDM SERVICIOS S.A.</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>04/04/2012</t>
+          <t>16/05/2012</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6675301&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,40 +2536,40 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
+          <t>Proyecto de Regularización de Cerro Negro</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Compañía Minera Cerro Negro S.A.</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>200</v>
+        <v>3500</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>27/03/2012</t>
+          <t>04/04/2012</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6675301&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2599,15 +2599,15 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>20/02/2012</t>
+          <t>27/03/2012</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -2617,7 +2617,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2647,15 +2647,15 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>13/01/2012</t>
+          <t>20/02/2012</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -2665,7 +2665,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2695,15 +2695,15 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>11/01/2012</t>
+          <t>13/01/2012</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -2713,7 +2713,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2743,15 +2743,15 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>11/01/2012</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -2761,7 +2761,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2791,15 +2791,15 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>08/09/2011</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -2809,7 +2809,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2847,7 +2847,7 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>12/05/2011</t>
+          <t>08/09/2011</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -2857,7 +2857,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Ampliación de rutas para el servicio de transporte, reciclaje y gestión de residuos industriales .</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2887,25 +2887,25 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>27/04/2011</t>
+          <t>12/05/2011</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5540550&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Ampliacion de rutas para el transporte, reciclaje y gestión de residuos industriales. .</t>
+          <t>Ampliación de rutas para el servicio de transporte, reciclaje y gestión de residuos industriales .</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2943,17 +2943,17 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>15/04/2011</t>
+          <t>27/04/2011</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5532880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5540550&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Enaex Servicios S.A</t>
+          <t>Ampliacion de rutas para el transporte, reciclaje y gestión de residuos industriales. .</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2983,25 +2983,25 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>12000</v>
+        <v>250</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>14/04/2011</t>
+          <t>15/04/2011</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5537784&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5532880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Modificación Disposición de Estériles Proyecto Medialuna-Chiringo</t>
+          <t>Transporte de Sustancias Peligrosas Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3026,20 +3026,20 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Compañía Minera Cerro Negro S.A.</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>3200</v>
+        <v>12000</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>04/04/2011</t>
+          <t>14/04/2011</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -3049,7 +3049,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5484316&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5537784&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Enaex Servicios S.A</t>
+          <t>Modificación Disposición de Estériles Proyecto Medialuna-Chiringo</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3074,30 +3074,30 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Compañía Minera Cerro Negro S.A.</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>12000</v>
+        <v>3200</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>29/03/2011</t>
+          <t>04/04/2011</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5485763&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5484316&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE ÁCIDO SULFURICO EN LA I, II, III, IV, V Y REGION METROPOLITANA</t>
+          <t>Transporte de Sustancias Peligrosas Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3127,25 +3127,25 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Transportes Hurcam Spa.</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>0</v>
+        <v>12000</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>19/11/2010</t>
+          <t>29/03/2011</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5076623&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5485763&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>transporte de acido sulfúrico en la I, II, III, IV, V Y Región Metropolitana</t>
+          <t>TRANSPORTE DE ÁCIDO SULFURICO EN LA I, II, III, IV, V Y REGION METROPOLITANA</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3179,21 +3179,21 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>05/11/2010</t>
+          <t>19/11/2010</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5044515&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5076623&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos</t>
+          <t>transporte de acido sulfúrico en la I, II, III, IV, V Y Región Metropolitana</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3223,25 +3223,25 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Transportes Hurcam Spa.</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>1750</v>
+        <v>1</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>23/08/2010</t>
+          <t>05/11/2010</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4865154&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5044515&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Ácido Sulfúrico a granel entre la Regiones de Arica-Parinacota y de Valparaíso, incluida la Región Metropolitana</t>
+          <t>Transporte Terrestre de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3271,15 +3271,15 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>SOTRASER S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>410</v>
+        <v>1750</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>30/06/2010</t>
+          <t>23/08/2010</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -3289,7 +3289,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4715470&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4865154&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Explotación de Minerales Mina Don Jaime</t>
+          <t>Transporte Terrestre de Ácido Sulfúrico a granel entre la Regiones de Arica-Parinacota y de Valparaíso, incluida la Región Metropolitana</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3314,20 +3314,20 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Minera Las Cenizas S.A.</t>
+          <t>SOTRASER S.A.</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>10000</v>
+        <v>410</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>10/06/2010</t>
+          <t>30/06/2010</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -3337,7 +3337,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4643665&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4715470&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Expansión Mina Carmen - Margarita</t>
+          <t>Explotación de Minerales Mina Don Jaime</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3371,11 +3371,11 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>450</v>
+        <v>10000</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>14/05/2010</t>
+          <t>10/06/2010</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -3385,7 +3385,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4512582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4643665&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
+          <t>Expansión Mina Carmen - Margarita</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3410,20 +3410,20 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Minera Las Cenizas S.A.</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>4050</v>
+        <v>450</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>03/05/2010</t>
+          <t>14/05/2010</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -3433,7 +3433,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4512582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3463,15 +3463,15 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>250</v>
+        <v>4050</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>26/04/2010</t>
+          <t>03/05/2010</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -3481,7 +3481,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Transporte de Cargas por Carretera</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3511,25 +3511,25 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>31/03/2010</t>
+          <t>26/04/2010</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Cargas por Carretera</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3559,15 +3559,15 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>24/03/2010</t>
+          <t>31/03/2010</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -3577,7 +3577,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Transporte de residuos peligrosos, Transportes Bello</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3615,7 +3615,7 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>18/02/2010</t>
+          <t>24/03/2010</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -3625,7 +3625,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4348527&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Transporte de residuos peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3655,25 +3655,25 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>250</v>
+        <v>4050</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>10/02/2010</t>
+          <t>18/02/2010</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4348527&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3703,15 +3703,15 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>22/01/2010</t>
+          <t>10/02/2010</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -3721,7 +3721,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3751,7 +3751,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F71" t="n">
@@ -3764,12 +3764,12 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3807,17 +3807,17 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>15/01/2010</t>
+          <t>22/01/2010</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3847,25 +3847,25 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Transportes TREPE Ltda.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>08/01/2010</t>
+          <t>15/01/2010</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, Región Metropolitana y VI (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3895,15 +3895,15 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Rojas y Donaire Cía. Ltda.</t>
+          <t>Transportes TREPE Ltda.</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>2000</v>
+        <v>350</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>18/11/2009</t>
+          <t>08/01/2010</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
@@ -3913,7 +3913,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4151517&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, Región Metropolitana y VI (e-seia)</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3943,25 +3943,25 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Rojas y Donaire Cía. Ltda.</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>250</v>
+        <v>2000</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>15/10/2009</t>
+          <t>18/11/2009</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4108064&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4151517&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3999,7 +3999,7 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>23/09/2009</t>
+          <t>15/10/2009</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
@@ -4009,7 +4009,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4108064&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Transporte de Combustibles y Residuos Industriales, Peligrosos y No Peligrosos entre Arica y Puerto Montt (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4039,25 +4039,25 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Transportes Centro Sur Norte S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>27/07/2009</t>
+          <t>23/09/2009</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3893261&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto Interregional de Transporte de Combustibles y Residuos Industriales, Peligrosos y No Peligrosos entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4087,15 +4087,15 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Transportes Centro Sur Norte S.A.</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>27/07/2009</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -4105,7 +4105,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3893261&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>TRANSPORTE SE SUSTANCIAS PELIGROSAS ENTRE LAS REGIÓNES I, II, III, IV, V, REGIÓN METROPOLITANA y VI REGION (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4135,25 +4135,25 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Rojas y Donaire Cía. Ltda.</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>2000</v>
+        <v>22</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>02/02/2009</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3533261&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>TRANSPORTE SE SUSTANCIAS PELIGROSAS ENTRE LAS REGIÓNES I, II, III, IV, V, REGIÓN METROPOLITANA y VI REGION (e-seia)</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4183,15 +4183,15 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Rojas y Donaire Cía. Ltda.</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>23/01/2009</t>
+          <t>02/02/2009</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
@@ -4201,7 +4201,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3533261&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4239,17 +4239,17 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>27/11/2008</t>
+          <t>23/01/2009</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4279,25 +4279,25 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>30/10/2008</t>
+          <t>27/11/2008</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4327,25 +4327,25 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>15/10/2008</t>
+          <t>30/10/2008</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4431,7 +4431,7 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>01/10/2008</t>
+          <t>15/10/2008</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
@@ -4441,7 +4441,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Proyecto Expansion Rajo Medialuna - Chiringo (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4466,30 +4466,30 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Compañía Minera Cerro Negro S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>5329</v>
+        <v>250</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>16/09/2008</t>
+          <t>01/10/2008</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3190496&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>Proyecto Expansion Rajo Medialuna - Chiringo (e-seia)</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4514,30 +4514,30 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Compañía Minera Cerro Negro S.A.</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>250</v>
+        <v>5329</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>20/08/2008</t>
+          <t>16/09/2008</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3190496&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Transporte Cinco (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4567,25 +4567,25 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Transportes Cinco Limitada</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>3408</v>
+        <v>250</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>18/08/2008</t>
+          <t>20/08/2008</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3111632&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas, Transporte Cinco (e-seia)</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4615,15 +4615,15 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Transportes Cinco Limitada</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>80</v>
+        <v>3408</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>28/07/2008</t>
+          <t>18/08/2008</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
@@ -4633,7 +4633,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3066713&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3111632&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Regularización y Expansión Rajo Medialuna - Chiringo (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4658,30 +4658,30 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Compañía Minera Cerro Negro S.A.</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>5329</v>
+        <v>80</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>21/07/2008</t>
+          <t>28/07/2008</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3045082&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3066713&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Regularización y Expansión Rajo Medialuna - Chiringo (e-seia)</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4706,20 +4706,20 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Compañía Minera Cerro Negro S.A.</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>80</v>
+        <v>5329</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>14/07/2008</t>
+          <t>21/07/2008</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
@@ -4729,7 +4729,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3045082&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4744,7 +4744,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4759,25 +4759,25 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>09/07/2008</t>
+          <t>14/07/2008</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3024415&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4792,7 +4792,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4807,25 +4807,25 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Víctor Martínez Salcedo</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>03/07/2008</t>
+          <t>09/07/2008</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3014508&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3024415&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4840,7 +4840,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4855,25 +4855,25 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Víctor Martínez Salcedo</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>30/06/2008</t>
+          <t>03/07/2008</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3004520&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3014508&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
+          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4903,25 +4903,25 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Cavilolén S.A.</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>10/06/2008</t>
+          <t>30/06/2008</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3004520&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE ÁCIDO SULFURICO A GRANEL ENTRE LA PRIMERA Y DÉCIMA REGIONES DE CHILE (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4951,15 +4951,15 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>Sociedad de Transportes Cavilolén S.A.</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>21/02/2008</t>
+          <t>10/06/2008</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
@@ -4969,7 +4969,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2688254&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE ÁCIDO SULFURICO A GRANEL ENTRE LA PRIMERA Y DÉCIMA REGIONES DE CHILE (e-seia)</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4999,15 +4999,15 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>429</v>
+        <v>0</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>02/11/2007</t>
+          <t>21/02/2008</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
@@ -5017,7 +5017,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2688254&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>PROYECTO REGULARIZACION BOTADERO DE RIPIOS (e-seia)</t>
+          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5042,20 +5042,20 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Compañía Minera Cerro Negro S.A.</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>327</v>
+        <v>429</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>24/10/2007</t>
+          <t>02/11/2007</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
@@ -5065,7 +5065,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2422784&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5080,7 +5080,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>PROYECTO REGULARIZACION BOTADERO DE RIPIOS (e-seia)</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5090,30 +5090,30 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Compañía Minera Cerro Negro S.A.</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>234</v>
+        <v>327</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>24/10/2007</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2422784&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Regularización Botadero de Ripios (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5138,20 +5138,20 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Compañía Minera Cerro Negro S.A.</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>327</v>
+        <v>234</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
@@ -5161,7 +5161,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2313389&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>PROYECTO AMPLIACIÓN DE TRANQUES DE RELAVES Nº6 (e-seia)</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5186,16 +5186,16 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Compañía Minera Cerro Negro S.A.</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>10</v>
+        <v>1200</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
@@ -5204,12 +5204,12 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2313324&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>PROYECTO AMPLIACIÓN DE TRANQUES DE RELAVES Nº6 (e-seia)</t>
+          <t>Regularización Botadero de Ripios (e-seia)</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5243,7 +5243,7 @@
         </is>
       </c>
       <c r="F102" t="n">
-        <v>1200</v>
+        <v>327</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
@@ -5252,12 +5252,12 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2313324&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2313389&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5287,15 +5287,15 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
@@ -5305,7 +5305,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5335,25 +5335,25 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>1</v>
+        <v>300</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>16/03/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Transporte, Reciclaje y Gestión de Residuos Industriales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5383,25 +5383,25 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>210</v>
+        <v>1</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>20/02/2007</t>
+          <t>16/03/2007</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2002494&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Transporte, Reciclaje y Gestión de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5431,15 +5431,15 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>500</v>
+        <v>210</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>13/02/2007</t>
+          <t>20/02/2007</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
@@ -5449,7 +5449,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2002494&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5479,25 +5479,25 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>13/02/2007</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5512,7 +5512,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5535,17 +5535,17 @@
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5560,7 +5560,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Modificación al Plan Regulador Metropolitano de Valparaíso Satélite Petorca - Cabildo (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5570,30 +5570,30 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región de Valparaíso</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>19/12/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1870997&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5608,7 +5608,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
+          <t>Modificación al Plan Regulador Metropolitano de Valparaíso Satélite Petorca - Cabildo (e-seia)</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5618,20 +5618,20 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>TRANSPORTES INOSTROZA LTDA</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región de Valparaíso</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>07/12/2006</t>
+          <t>19/12/2006</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
@@ -5641,7 +5641,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1870997&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5656,7 +5656,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las regiones I, II, III, IV, VII y Región Metropolitana (e-seia)</t>
+          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5671,15 +5671,15 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTES INOSTROZA LTDA</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>22/11/2006</t>
+          <t>07/12/2006</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
@@ -5689,7 +5689,7 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1821133&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5704,7 +5704,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las regiones I, II, III, IV, VII y Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5727,17 +5727,17 @@
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>10/11/2006</t>
+          <t>22/11/2006</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1821133&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5752,7 +5752,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, VI, VII y RM, "Transportes Bello" (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5775,7 +5775,7 @@
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>02/11/2006</t>
+          <t>10/11/2006</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
@@ -5785,7 +5785,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1773812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5800,7 +5800,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, VI, VII y RM, "Transportes Bello" (e-seia)</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5815,25 +5815,25 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>12/10/2006</t>
+          <t>02/11/2006</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1773812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5848,30 +5848,30 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Depósito de Pasta - Cabildo</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Minera Las Cenizas S.A.</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>6000</v>
+        <v>250</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>11/10/2006</t>
+          <t>12/10/2006</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
@@ -5881,7 +5881,7 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1751213&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5896,12 +5896,12 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DEL EFLUENTE DE LAVADO DE LIMONES (e-seia)</t>
+          <t>Depósito de Pasta - Cabildo</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -5911,15 +5911,15 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Agricola y Comercial CABILFRUT S.A.</t>
+          <t>Minera Las Cenizas S.A.</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>25</v>
+        <v>6000</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>14/08/2006</t>
+          <t>11/10/2006</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
@@ -5929,7 +5929,7 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1600036&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1751213&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5944,7 +5944,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Transporte de Combustibles (e-seia)</t>
+          <t>TRATAMIENTO DEL EFLUENTE DE LAVADO DE LIMONES (e-seia)</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5954,30 +5954,30 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>Agricola y Comercial CABILFRUT S.A.</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>500</v>
+        <v>25</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>31/03/2006</t>
+          <t>14/08/2006</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1600036&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5992,7 +5992,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Transporte de Combustibles (e-seia)</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6007,25 +6007,25 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>4000</v>
+        <v>500</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>31/03/2006</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6040,7 +6040,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>PLAN REGIONAL DE DESARROLLO URBANO Y TERRITORIAL, REGIÓN DE VALPARAÍSO (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6050,30 +6050,30 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región de Valparaíso</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>08/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1331410&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6088,7 +6088,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>PLAN REGIONAL DE DESARROLLO URBANO Y TERRITORIAL, REGIÓN DE VALPARAÍSO (e-seia)</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6098,30 +6098,30 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región de Valparaíso</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>08/03/2006</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1331410&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6136,7 +6136,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6151,25 +6151,25 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Degraf Limitada</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>72</v>
+        <v>4000</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>05/01/2006</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6184,7 +6184,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6199,7 +6199,7 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Juan Pablo Pérez Reyes</t>
+          <t>Sociedad Comercial Degraf Limitada</t>
         </is>
       </c>
       <c r="F122" t="n">
@@ -6207,17 +6207,17 @@
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>20/12/2005</t>
+          <t>05/01/2006</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6232,7 +6232,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano y Territorial PRDUT V, Región de Valparaíso (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6242,30 +6242,30 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>SEREMI MINVU V REGIÓN</t>
+          <t>Juan Pablo Pérez Reyes</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>16/12/2005</t>
+          <t>20/12/2005</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1169202&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -6280,7 +6280,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Transporte de Productos Industriales por las Regiones I, II, III, IV, V, VI y Región Metropolitana (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano y Territorial PRDUT V, Región de Valparaíso (e-seia)</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6290,12 +6290,12 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Transportes Reciclar Limitada</t>
+          <t>SEREMI MINVU V REGIÓN</t>
         </is>
       </c>
       <c r="F124" t="n">
@@ -6303,17 +6303,17 @@
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>12/12/2005</t>
+          <t>16/12/2005</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1150168&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1169202&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -6328,7 +6328,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
+          <t>Transporte de Productos Industriales por las Regiones I, II, III, IV, V, VI y Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6343,15 +6343,15 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>BATERIAS COSMOS LTDA</t>
+          <t>Transportes Reciclar Limitada</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>11/11/2005</t>
+          <t>12/12/2005</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
@@ -6361,7 +6361,7 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1150168&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6376,7 +6376,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE BORRAS PLOMADAS Y OTROS RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6391,15 +6391,15 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Sociedad de Representaciones Ltda.</t>
+          <t>BATERIAS COSMOS LTDA</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>20/10/2005</t>
+          <t>11/11/2005</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
@@ -6409,7 +6409,7 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1069115&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6424,7 +6424,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE BORRAS PLOMADAS Y OTROS RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6439,15 +6439,15 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Sociedad de Representaciones Ltda.</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>08/09/2005</t>
+          <t>20/10/2005</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
@@ -6457,7 +6457,7 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1069115&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -6487,11 +6487,11 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
@@ -6505,7 +6505,7 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6520,7 +6520,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6535,11 +6535,11 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
@@ -6553,7 +6553,7 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6568,7 +6568,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>D.I.A. para obtener ampliacion de capacidad para disponer residuos sólidos domiciliarios y asimilables en la comuna de cabildo (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6578,30 +6578,30 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Julia Haydeé Olivares Vega</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>29/04/2005</t>
+          <t>08/09/2005</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=643104&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -6616,7 +6616,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>PROYECTO DEPOSITACIÓN DE RELAVES ESPESADOS INTERIOR MINA CABILDO (e-seia)</t>
+          <t>D.I.A. para obtener ampliacion de capacidad para disponer residuos sólidos domiciliarios y asimilables en la comuna de cabildo (e-seia)</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6631,25 +6631,25 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Minera Las Cenizas S.A.</t>
+          <t>Julia Haydeé Olivares Vega</t>
         </is>
       </c>
       <c r="F131" t="n">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>27/01/2005</t>
+          <t>29/04/2005</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=580146&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=643104&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6664,7 +6664,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Proyecto Botadero Farellones II (e-seia)</t>
+          <t>PROYECTO DEPOSITACIÓN DE RELAVES ESPESADOS INTERIOR MINA CABILDO (e-seia)</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6683,11 +6683,11 @@
         </is>
       </c>
       <c r="F132" t="n">
-        <v>45</v>
+        <v>4000</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>23/09/2004</t>
+          <t>27/01/2005</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
@@ -6697,7 +6697,7 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=456985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=580146&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6712,7 +6712,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Proyecto Botadero Las Guías II (e-seia)</t>
+          <t>Proyecto Botadero Farellones II (e-seia)</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6731,7 +6731,7 @@
         </is>
       </c>
       <c r="F133" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
@@ -6745,7 +6745,7 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=457018&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=456985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6779,21 +6779,21 @@
         </is>
       </c>
       <c r="F134" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>14/09/2004</t>
+          <t>23/09/2004</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=447934&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=457018&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Proyecto Botadero Farellones II (e-seia)</t>
+          <t>Proyecto Botadero Las Guías II (e-seia)</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6827,11 +6827,11 @@
         </is>
       </c>
       <c r="F135" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>10/09/2004</t>
+          <t>14/09/2004</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
@@ -6841,7 +6841,7 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=446795&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=447934&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6856,7 +6856,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Transporte Rodoviario de Cloro en y entre las Regiones II y X (e-seia)</t>
+          <t>Proyecto Botadero Farellones II (e-seia)</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6866,30 +6866,30 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>Minera Las Cenizas S.A.</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>09/08/2004</t>
+          <t>10/09/2004</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=415850&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=446795&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6904,7 +6904,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Sistema de Alcantarillado para la Localidad de Artificio de Cabildo</t>
+          <t>Transporte Rodoviario de Cloro en y entre las Regiones II y X (e-seia)</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6914,20 +6914,20 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidd de Cabildo</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>1900</v>
+        <v>0</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>04/10/2000</t>
+          <t>09/08/2004</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
@@ -6937,7 +6937,7 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3288&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=415850&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -6952,43 +6952,91 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
+          <t>Sistema de Alcantarillado para la Localidad de Artificio de Cabildo</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>Quinta</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>Ilustre Municipalidd de Cabildo</t>
+        </is>
+      </c>
+      <c r="F138" t="n">
+        <v>1900</v>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>04/10/2000</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3288&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>Cabildo</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>138</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
           <t>Normalización de la Operación de la Planta SX</t>
         </is>
       </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
-      <c r="D138" t="inlineStr">
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
         <is>
           <t>Quinta</t>
         </is>
       </c>
-      <c r="E138" t="inlineStr">
+      <c r="E139" t="inlineStr">
         <is>
           <t>Compañía Minera Cerro Negro S.A.</t>
         </is>
       </c>
-      <c r="F138" t="n">
+      <c r="F139" t="n">
         <v>1000</v>
       </c>
-      <c r="G138" t="inlineStr">
+      <c r="G139" t="inlineStr">
         <is>
           <t>17/03/2000</t>
         </is>
       </c>
-      <c r="H138" t="inlineStr">
+      <c r="H139" t="inlineStr">
         <is>
           <t>Aprobado</t>
         </is>
       </c>
-      <c r="I138" t="inlineStr">
+      <c r="I139" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2729&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J138" t="inlineStr">
+      <c r="J139" t="inlineStr">
         <is>
           <t>Cabildo</t>
         </is>

--- a/data/Cabildo.xlsx
+++ b/data/Cabildo.xlsx
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4375,11 +4375,11 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
@@ -4388,12 +4388,12 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4423,11 +4423,11 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
@@ -4436,12 +4436,12 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>PROYECTO AMPLIACIÓN DE TRANQUES DE RELAVES Nº6 (e-seia)</t>
+          <t>Regularización Botadero de Ripios (e-seia)</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5195,7 +5195,7 @@
         </is>
       </c>
       <c r="F101" t="n">
-        <v>1200</v>
+        <v>327</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
@@ -5204,12 +5204,12 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2313324&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2313389&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Regularización Botadero de Ripios (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5234,16 +5234,16 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Compañía Minera Cerro Negro S.A.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>327</v>
+        <v>10</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
@@ -5257,7 +5257,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2313389&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>PROYECTO AMPLIACIÓN DE TRANQUES DE RELAVES Nº6 (e-seia)</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5282,16 +5282,16 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Compañía Minera Cerro Negro S.A.</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>10</v>
+        <v>1200</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
@@ -5300,12 +5300,12 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2313324&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">

--- a/data/Cabildo.xlsx
+++ b/data/Cabildo.xlsx
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4375,11 +4375,11 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
@@ -4388,12 +4388,12 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4423,11 +4423,11 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
@@ -4436,12 +4436,12 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Regularización Botadero de Ripios (e-seia)</t>
+          <t>PROYECTO AMPLIACIÓN DE TRANQUES DE RELAVES Nº6 (e-seia)</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5195,7 +5195,7 @@
         </is>
       </c>
       <c r="F101" t="n">
-        <v>327</v>
+        <v>1200</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
@@ -5204,12 +5204,12 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2313389&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2313324&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Regularización Botadero de Ripios (e-seia)</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5234,16 +5234,16 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Compañía Minera Cerro Negro S.A.</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>10</v>
+        <v>327</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
@@ -5257,7 +5257,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2313389&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>PROYECTO AMPLIACIÓN DE TRANQUES DE RELAVES Nº6 (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5282,16 +5282,16 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Compañía Minera Cerro Negro S.A.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>1200</v>
+        <v>10</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
@@ -5300,12 +5300,12 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2313324&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">

--- a/data/Cabildo.xlsx
+++ b/data/Cabildo.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/08/2023</t>
+          <t>23/08/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Cabildo.xlsx
+++ b/data/Cabildo.xlsx
@@ -452,7 +452,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Cabildo.xlsx
+++ b/data/Cabildo.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J139"/>
+  <dimension ref="A1:J140"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,40 +424,40 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Cabildo Solar</t>
+          <t>Línea de Transmisión Eléctrica HVDC Kimal - Lo Aguirre</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>LUZ DE SOL 5 SPA</t>
+          <t>Conexión Kimal Lo Aguirre S.A</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>60000</v>
+        <v>1.48</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>23/08/2023</t>
+          <t>23/10/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159819319&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2160211381&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Disposición de Relave en Pasta en Interior Mina</t>
+          <t>Parque Fotovoltaico Cabildo Solar</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,25 +487,25 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Minera Las Cenizas S.A.</t>
+          <t>LUZ DE SOL 5 SPA</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>10000</v>
+        <v>60000</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>16/05/2022</t>
+          <t>23/08/2023</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155749878&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159819319&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Proyecto Jardín Solar Petorca</t>
+          <t>Disposición de Relave en Pasta en Interior Mina</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -535,25 +535,25 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>ORION POWER SpA</t>
+          <t>Minera Las Cenizas S.A.</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>25/11/2020</t>
+          <t>16/05/2022</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149087079&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155749878&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Estación de Transferencia de Residuos Sólidos Comuna de Cabildo</t>
+          <t>Proyecto Jardín Solar Petorca</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,25 +583,25 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Cabildo</t>
+          <t>ORION POWER SpA</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1400</v>
+        <v>12000</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>21/10/2020</t>
+          <t>25/11/2020</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148775536&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149087079&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Cabildo Sunlight</t>
+          <t>Estación de Transferencia de Residuos Sólidos Comuna de Cabildo</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -631,25 +631,25 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Cabildo Sunlight SpA</t>
+          <t>Ilustre Municipalidad de Cabildo</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>10000</v>
+        <v>1400</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>22/07/2020</t>
+          <t>21/10/2020</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147479274&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148775536&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Ampliación de la Actividad de Transporte de Sustancias Peligrosas de ENAEX Servicios S.A.</t>
+          <t>Parque Fotovoltaico Cabildo Sunlight</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -674,20 +674,20 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Cabildo Sunlight SpA</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>25000</v>
+        <v>10000</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>07/01/2020</t>
+          <t>22/07/2020</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -697,7 +697,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145325740&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147479274&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Estación de Transferencia de Residuos Sólidos Comuna de Cabildo</t>
+          <t>Ampliación de la Actividad de Transporte de Sustancias Peligrosas de ENAEX Servicios S.A.</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -722,30 +722,30 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Cabildo</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>3200</v>
+        <v>25000</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>20/12/2019</t>
+          <t>07/01/2020</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145227433&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145325740&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,12 +760,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Plan de Desarrollo de Largo Plazo - Compañia Minera Cerro Negro S.A.</t>
+          <t>Estación de Transferencia de Residuos Sólidos Comuna de Cabildo</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -775,25 +775,25 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Compañía Minera Cerro Negro S.A.</t>
+          <t>Ilustre Municipalidad de Cabildo</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>22000</v>
+        <v>3200</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>18/10/2018</t>
+          <t>20/12/2019</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141586281&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145227433&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,12 +808,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Parque Solar Los Paltos</t>
+          <t>Plan de Desarrollo de Largo Plazo - Compañia Minera Cerro Negro S.A.</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -823,25 +823,25 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>PARQUE SOLAR LOS PALTOS SPA</t>
+          <t>Compañía Minera Cerro Negro S.A.</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>16114</v>
+        <v>22000</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>20/07/2018</t>
+          <t>18/10/2018</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2140987045&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141586281&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Transporte de ácido sulfúrico regiones de Antofagasta Atacama Coquimbo y Valparaíso</t>
+          <t>Parque Solar Los Paltos</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -866,20 +866,20 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Eric Alexis Fernando Aravena Aravena, Transporte de Carga y Movimiento de Tierra, Empresa Individual de Responsabilidad Limitada</t>
+          <t>PARQUE SOLAR LOS PALTOS SPA</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>4000</v>
+        <v>16114</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>27/06/2018</t>
+          <t>20/07/2018</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2140826557&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2140987045&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Peraltamiento Tranque de Relaves N°6</t>
+          <t>Transporte de ácido sulfúrico regiones de Antofagasta Atacama Coquimbo y Valparaíso</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -914,30 +914,30 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Compañía Minera Cerro Negro S.A.</t>
+          <t>Eric Alexis Fernando Aravena Aravena, Transporte de Carga y Movimiento de Tierra, Empresa Individual de Responsabilidad Limitada</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>800</v>
+        <v>4000</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>20/12/2017</t>
+          <t>27/06/2018</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2137969123&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2140826557&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>LOTEO DOÑA AURORA DEL QUEMADO DE CABILDO</t>
+          <t>Peraltamiento Tranque de Relaves N°6</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -967,25 +967,25 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>CARLOS SANTIAGO DIAZ ARAYA</t>
+          <t>Compañía Minera Cerro Negro S.A.</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>9500</v>
+        <v>800</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>21/07/2017</t>
+          <t>20/12/2017</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132540830&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2137969123&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Re-procesamiento y de Re-ubicación Relaves Inertizados de Cerro Negro</t>
+          <t>LOTEO DOÑA AURORA DEL QUEMADO DE CABILDO</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1015,25 +1015,25 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Gestión Minera Sustentable SpA</t>
+          <t>CARLOS SANTIAGO DIAZ ARAYA</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>3500</v>
+        <v>9500</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>06/03/2017</t>
+          <t>21/07/2017</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132180559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132540830&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Continuidad Operacional Mina Carmen - Margarita</t>
+          <t>Re-procesamiento y de Re-ubicación Relaves Inertizados de Cerro Negro</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1063,25 +1063,25 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Minera Las Cenizas S.A.</t>
+          <t>Gestión Minera Sustentable SpA</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>11000</v>
+        <v>3500</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>02/02/2017</t>
+          <t>06/03/2017</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132141791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132180559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Terrestre de Sustancias Químicas</t>
+          <t>Continuidad Operacional Mina Carmen - Margarita</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1106,20 +1106,20 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Minera Las Cenizas S.A.</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>22/08/2016</t>
+          <t>02/02/2017</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1129,7 +1129,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131697972&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132141791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Tranque Vitahue</t>
+          <t>Ampliación Transporte Terrestre de Sustancias Químicas</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1154,20 +1154,20 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Agrícola Fundo Vitahue Limitada</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>170</v>
+        <v>10000</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>18/03/2016</t>
+          <t>22/08/2016</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1177,7 +1177,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131185658&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131697972&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Parque Solar Fotovoltaico Cabilsol</t>
+          <t>Tranque Vitahue</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1207,15 +1207,15 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>GR Guayacan SpA</t>
+          <t>Agrícola Fundo Vitahue Limitada</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>11000</v>
+        <v>170</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>20/10/2015</t>
+          <t>18/03/2016</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130847353&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131185658&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Parque Solar Fotovoltaico Cabilsol</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1250,30 +1250,30 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>GR Guayacan SpA</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>5000</v>
+        <v>11000</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>26/01/2015</t>
+          <t>20/10/2015</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130159203&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130847353&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Peralte Tranque de Relave N°6</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1298,30 +1298,30 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Compañía Minera Cerro Negro S.A.</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>300</v>
+        <v>5000</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>19/01/2015</t>
+          <t>26/01/2015</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130144735&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130159203&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
+          <t>Peralte Tranque de Relave N°6</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1346,30 +1346,30 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Compañía Minera Cerro Negro S.A.</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>5000</v>
+        <v>300</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>26/12/2014</t>
+          <t>19/01/2015</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130144735&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Peralte Tranque de Relave N°6</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1394,30 +1394,30 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Compañía Minera Cerro Negro S.A.</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>300</v>
+        <v>5000</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>18/12/2014</t>
+          <t>26/12/2014</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130003811&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Peralte Tranque de Relave N°6</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1442,30 +1442,30 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Compañía Minera Cerro Negro S.A.</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>5000</v>
+        <v>300</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>20/11/2014</t>
+          <t>18/12/2014</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129965016&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130003811&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Modificación Transporte y Logística Interregional de Cargas y/o Sustancias Peligrosas.</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1495,25 +1495,25 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>6750</v>
+        <v>5000</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>13/11/2014</t>
+          <t>20/11/2014</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129725840&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129965016&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Modificación Transporte y Logística Interregional de Cargas y/o Sustancias Peligrosas.</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1543,25 +1543,25 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>5000</v>
+        <v>6750</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>05/11/2014</t>
+          <t>13/11/2014</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129895680&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129725840&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>REGULARIZACIÓN OPERACIÓN DE MINA PEUMO</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1586,30 +1586,30 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Compañía Minera La Patagua</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>04/09/2014</t>
+          <t>05/11/2014</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129758228&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129895680&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,12 +1624,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Faena Minera Cerro Negro</t>
+          <t>REGULARIZACIÓN OPERACIÓN DE MINA PEUMO</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1639,25 +1639,25 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Compañía Minera Cerro Negro S.A.</t>
+          <t>Compañía Minera La Patagua</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>16000</v>
+        <v>2000</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>04/07/2014</t>
+          <t>04/09/2014</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129583620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129758228&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,40 +1672,40 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y No Peligrosos entre las Regiones XV y X</t>
+          <t>Faena Minera Cerro Negro</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Compañía Minera Cerro Negro S.A.</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>5000</v>
+        <v>16000</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>30/06/2014</t>
+          <t>04/07/2014</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129237859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129583620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y No Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1735,15 +1735,15 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>VERATRANS SPA</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>800</v>
+        <v>5000</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>23/12/2013</t>
+          <t>30/06/2014</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -1753,7 +1753,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128959410&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129237859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>REGULARIZACIÓN DE LA OPERACIÓN MINA PEUMO, COMUNA DE CABILDO, PROVINCIA DE PETORCA, V REGIÓNVALPARAÍSO</t>
+          <t>Transporte de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1778,16 +1778,16 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Compañía Minera La Patagua S.A.</t>
+          <t>VERATRANS SPA</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -1801,7 +1801,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128955877&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128959410&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>REGULARIZACIÓN DE LA OPERACIÓN MINA PEUMO, COMUNA DE CABILDO, PROVINCIA DE PETORCA, V REGIÓNVALPARAÍSO</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1826,16 +1826,16 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Compañía Minera La Patagua S.A.</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1200</v>
+        <v>2000</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -1844,12 +1844,12 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128955877&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1879,11 +1879,11 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -1897,7 +1897,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>PARQUE SOLAR BARTOLILLO</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1922,20 +1922,20 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>BARTOLILLO SPA</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>16800</v>
+        <v>0</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>12/12/2013</t>
+          <t>23/12/2013</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -1945,7 +1945,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128899769&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos y No Peligrosos</t>
+          <t>PARQUE SOLAR BARTOLILLO</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1970,30 +1970,30 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>VERATRANS SPA</t>
+          <t>BARTOLILLO SPA</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>800</v>
+        <v>16800</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>20/11/2013</t>
+          <t>12/12/2013</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128831391&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128899769&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no peligrosos entre las Regiones XV y X</t>
+          <t>Transporte de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2023,15 +2023,15 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>VERATRANS SPA</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>5000</v>
+        <v>800</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>08/11/2013</t>
+          <t>20/11/2013</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -2041,7 +2041,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128788354&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128831391&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Regularización Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2071,15 +2071,15 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>06/06/2013</t>
+          <t>08/11/2013</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8227033&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128788354&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
+          <t>Regularización Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2119,25 +2119,25 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Mauricio Salím Mahmud Vergara</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>06/05/2013</t>
+          <t>06/06/2013</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8126996&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8227033&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2167,25 +2167,25 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>Mauricio Salím Mahmud Vergara</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>2475</v>
+        <v>2500</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>17/04/2013</t>
+          <t>06/05/2013</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8057600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8126996&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Poder de Compra de Mineral / Cabildo- ENAMI</t>
+          <t>Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2210,30 +2210,30 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Empresa Nacional de Minería</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>8000</v>
+        <v>2475</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>18/03/2013</t>
+          <t>17/04/2013</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7971318&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8057600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Transporte de Productos Peligrosos TREXVAL S.A.</t>
+          <t>Poder de Compra de Mineral / Cabildo- ENAMI</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2258,30 +2258,30 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>Empresa Nacional de Minería</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>2475</v>
+        <v>8000</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>14/03/2013</t>
+          <t>18/03/2013</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7954924&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7971318&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Transportes de Sustancias Peligrosas TREXVAL S.A.</t>
+          <t>Transporte de Productos Peligrosos TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2311,15 +2311,15 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>TREXVAL S.A.</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>2450</v>
+        <v>2475</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>21/12/2012</t>
+          <t>14/03/2013</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -2329,7 +2329,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7643116&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7954924&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
+          <t>Transportes de Sustancias Peligrosas TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2359,25 +2359,25 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
+          <t>TREXVAL S.A.</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>15000</v>
+        <v>2450</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>31/07/2012</t>
+          <t>21/12/2012</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7643116&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Botadero de Ripios N° 2 Cerro Negro</t>
+          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2402,20 +2402,20 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Compañía Minera Cerro Negro S.A.</t>
+          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>1500</v>
+        <v>15000</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>06/07/2012</t>
+          <t>31/07/2012</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -2425,7 +2425,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6991437&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Mejoramiento Instalaciones Planta de Procesamiento de Minerales Cabildo</t>
+          <t>Botadero de Ripios N° 2 Cerro Negro</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2455,15 +2455,15 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Minera Las Cenizas S.A.</t>
+          <t>Compañía Minera Cerro Negro S.A.</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>22/06/2012</t>
+          <t>06/07/2012</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -2473,7 +2473,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7023812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6991437&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Mejoramiento Instalaciones Planta de Procesamiento de Minerales Cabildo</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2498,30 +2498,30 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>KDM SERVICIOS S.A.</t>
+          <t>Minera Las Cenizas S.A.</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>16/05/2012</t>
+          <t>22/06/2012</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7023812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,40 +2536,40 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Proyecto de Regularización de Cerro Negro</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Compañía Minera Cerro Negro S.A.</t>
+          <t>KDM SERVICIOS S.A.</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>04/04/2012</t>
+          <t>16/05/2012</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6675301&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,40 +2584,40 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
+          <t>Proyecto de Regularización de Cerro Negro</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Compañía Minera Cerro Negro S.A.</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>200</v>
+        <v>3500</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>27/03/2012</t>
+          <t>04/04/2012</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6675301&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2647,15 +2647,15 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>20/02/2012</t>
+          <t>27/03/2012</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -2665,7 +2665,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2695,15 +2695,15 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>13/01/2012</t>
+          <t>20/02/2012</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -2713,7 +2713,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2743,15 +2743,15 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>11/01/2012</t>
+          <t>13/01/2012</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -2761,7 +2761,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2791,15 +2791,15 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>11/01/2012</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -2809,7 +2809,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2839,15 +2839,15 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>08/09/2011</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -2857,7 +2857,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2895,7 +2895,7 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>12/05/2011</t>
+          <t>08/09/2011</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -2905,7 +2905,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Ampliación de rutas para el servicio de transporte, reciclaje y gestión de residuos industriales .</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2935,25 +2935,25 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>27/04/2011</t>
+          <t>12/05/2011</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5540550&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Ampliacion de rutas para el transporte, reciclaje y gestión de residuos industriales. .</t>
+          <t>Ampliación de rutas para el servicio de transporte, reciclaje y gestión de residuos industriales .</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2991,17 +2991,17 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>15/04/2011</t>
+          <t>27/04/2011</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5532880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5540550&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Enaex Servicios S.A</t>
+          <t>Ampliacion de rutas para el transporte, reciclaje y gestión de residuos industriales. .</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3031,25 +3031,25 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>12000</v>
+        <v>250</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>14/04/2011</t>
+          <t>15/04/2011</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5537784&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5532880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Modificación Disposición de Estériles Proyecto Medialuna-Chiringo</t>
+          <t>Transporte de Sustancias Peligrosas Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3074,20 +3074,20 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Compañía Minera Cerro Negro S.A.</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>3200</v>
+        <v>12000</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>04/04/2011</t>
+          <t>14/04/2011</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -3097,7 +3097,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5484316&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5537784&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Enaex Servicios S.A</t>
+          <t>Modificación Disposición de Estériles Proyecto Medialuna-Chiringo</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3122,30 +3122,30 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Compañía Minera Cerro Negro S.A.</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>12000</v>
+        <v>3200</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>29/03/2011</t>
+          <t>04/04/2011</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5485763&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5484316&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE ÁCIDO SULFURICO EN LA I, II, III, IV, V Y REGION METROPOLITANA</t>
+          <t>Transporte de Sustancias Peligrosas Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3175,25 +3175,25 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Transportes Hurcam Spa.</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>0</v>
+        <v>12000</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>19/11/2010</t>
+          <t>29/03/2011</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5076623&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5485763&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>transporte de acido sulfúrico en la I, II, III, IV, V Y Región Metropolitana</t>
+          <t>TRANSPORTE DE ÁCIDO SULFURICO EN LA I, II, III, IV, V Y REGION METROPOLITANA</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3227,21 +3227,21 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>05/11/2010</t>
+          <t>19/11/2010</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5044515&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5076623&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos</t>
+          <t>transporte de acido sulfúrico en la I, II, III, IV, V Y Región Metropolitana</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3271,25 +3271,25 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Transportes Hurcam Spa.</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>1750</v>
+        <v>1</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>23/08/2010</t>
+          <t>05/11/2010</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4865154&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5044515&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Ácido Sulfúrico a granel entre la Regiones de Arica-Parinacota y de Valparaíso, incluida la Región Metropolitana</t>
+          <t>Transporte Terrestre de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3319,15 +3319,15 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>SOTRASER S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>410</v>
+        <v>1750</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>30/06/2010</t>
+          <t>23/08/2010</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -3337,7 +3337,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4715470&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4865154&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Explotación de Minerales Mina Don Jaime</t>
+          <t>Transporte Terrestre de Ácido Sulfúrico a granel entre la Regiones de Arica-Parinacota y de Valparaíso, incluida la Región Metropolitana</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3362,20 +3362,20 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Minera Las Cenizas S.A.</t>
+          <t>SOTRASER S.A.</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>10000</v>
+        <v>410</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>10/06/2010</t>
+          <t>30/06/2010</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -3385,7 +3385,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4643665&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4715470&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Expansión Mina Carmen - Margarita</t>
+          <t>Explotación de Minerales Mina Don Jaime</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3419,11 +3419,11 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>450</v>
+        <v>10000</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>14/05/2010</t>
+          <t>10/06/2010</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -3433,7 +3433,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4512582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4643665&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
+          <t>Expansión Mina Carmen - Margarita</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3458,20 +3458,20 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Minera Las Cenizas S.A.</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>4050</v>
+        <v>450</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>03/05/2010</t>
+          <t>14/05/2010</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -3481,7 +3481,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4512582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3511,15 +3511,15 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>250</v>
+        <v>4050</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>26/04/2010</t>
+          <t>03/05/2010</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -3529,7 +3529,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Transporte de Cargas por Carretera</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3559,25 +3559,25 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>31/03/2010</t>
+          <t>26/04/2010</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Cargas por Carretera</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3607,15 +3607,15 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>24/03/2010</t>
+          <t>31/03/2010</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -3625,7 +3625,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Transporte de residuos peligrosos, Transportes Bello</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3663,7 +3663,7 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>18/02/2010</t>
+          <t>24/03/2010</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -3673,7 +3673,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4348527&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Transporte de residuos peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3703,25 +3703,25 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>250</v>
+        <v>4050</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>10/02/2010</t>
+          <t>18/02/2010</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4348527&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3751,15 +3751,15 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>22/01/2010</t>
+          <t>10/02/2010</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -3769,7 +3769,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3799,7 +3799,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F72" t="n">
@@ -3812,12 +3812,12 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3855,17 +3855,17 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>15/01/2010</t>
+          <t>22/01/2010</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3895,25 +3895,25 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Transportes TREPE Ltda.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>08/01/2010</t>
+          <t>15/01/2010</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, Región Metropolitana y VI (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3943,15 +3943,15 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Rojas y Donaire Cía. Ltda.</t>
+          <t>Transportes TREPE Ltda.</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>2000</v>
+        <v>350</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>18/11/2009</t>
+          <t>08/01/2010</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -3961,7 +3961,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4151517&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, Región Metropolitana y VI (e-seia)</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3991,25 +3991,25 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Rojas y Donaire Cía. Ltda.</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>250</v>
+        <v>2000</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>15/10/2009</t>
+          <t>18/11/2009</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4108064&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4151517&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4047,7 +4047,7 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>23/09/2009</t>
+          <t>15/10/2009</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
@@ -4057,7 +4057,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4108064&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Transporte de Combustibles y Residuos Industriales, Peligrosos y No Peligrosos entre Arica y Puerto Montt (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4087,25 +4087,25 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Transportes Centro Sur Norte S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>27/07/2009</t>
+          <t>23/09/2009</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3893261&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto Interregional de Transporte de Combustibles y Residuos Industriales, Peligrosos y No Peligrosos entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4135,15 +4135,15 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Transportes Centro Sur Norte S.A.</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>27/07/2009</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -4153,7 +4153,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3893261&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>TRANSPORTE SE SUSTANCIAS PELIGROSAS ENTRE LAS REGIÓNES I, II, III, IV, V, REGIÓN METROPOLITANA y VI REGION (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4183,25 +4183,25 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Rojas y Donaire Cía. Ltda.</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>2000</v>
+        <v>22</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>02/02/2009</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3533261&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>TRANSPORTE SE SUSTANCIAS PELIGROSAS ENTRE LAS REGIÓNES I, II, III, IV, V, REGIÓN METROPOLITANA y VI REGION (e-seia)</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4231,15 +4231,15 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Rojas y Donaire Cía. Ltda.</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>23/01/2009</t>
+          <t>02/02/2009</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
@@ -4249,7 +4249,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3533261&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4287,17 +4287,17 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>27/11/2008</t>
+          <t>23/01/2009</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4327,25 +4327,25 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>30/10/2008</t>
+          <t>27/11/2008</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4383,17 +4383,17 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>15/10/2008</t>
+          <t>30/10/2008</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4423,11 +4423,11 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
@@ -4436,12 +4436,12 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4479,7 +4479,7 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>01/10/2008</t>
+          <t>15/10/2008</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
@@ -4489,7 +4489,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Proyecto Expansion Rajo Medialuna - Chiringo (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4514,30 +4514,30 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Compañía Minera Cerro Negro S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>5329</v>
+        <v>250</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>16/09/2008</t>
+          <t>01/10/2008</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3190496&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>Proyecto Expansion Rajo Medialuna - Chiringo (e-seia)</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4562,30 +4562,30 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Compañía Minera Cerro Negro S.A.</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>250</v>
+        <v>5329</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>20/08/2008</t>
+          <t>16/09/2008</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3190496&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Transporte Cinco (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4615,25 +4615,25 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Transportes Cinco Limitada</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>3408</v>
+        <v>250</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>18/08/2008</t>
+          <t>20/08/2008</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3111632&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas, Transporte Cinco (e-seia)</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4663,15 +4663,15 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Transportes Cinco Limitada</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>80</v>
+        <v>3408</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>28/07/2008</t>
+          <t>18/08/2008</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
@@ -4681,7 +4681,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3066713&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3111632&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Regularización y Expansión Rajo Medialuna - Chiringo (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4706,30 +4706,30 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Compañía Minera Cerro Negro S.A.</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>5329</v>
+        <v>80</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>21/07/2008</t>
+          <t>28/07/2008</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3045082&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3066713&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4744,7 +4744,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Regularización y Expansión Rajo Medialuna - Chiringo (e-seia)</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4754,20 +4754,20 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Compañía Minera Cerro Negro S.A.</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>80</v>
+        <v>5329</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>14/07/2008</t>
+          <t>21/07/2008</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
@@ -4777,7 +4777,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3045082&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4792,7 +4792,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4807,25 +4807,25 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>09/07/2008</t>
+          <t>14/07/2008</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3024415&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4840,7 +4840,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4855,25 +4855,25 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Víctor Martínez Salcedo</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>03/07/2008</t>
+          <t>09/07/2008</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3014508&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3024415&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4903,25 +4903,25 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Víctor Martínez Salcedo</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>30/06/2008</t>
+          <t>03/07/2008</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3004520&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3014508&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
+          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4951,25 +4951,25 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Cavilolén S.A.</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>10/06/2008</t>
+          <t>30/06/2008</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3004520&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE ÁCIDO SULFURICO A GRANEL ENTRE LA PRIMERA Y DÉCIMA REGIONES DE CHILE (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4999,15 +4999,15 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>Sociedad de Transportes Cavilolén S.A.</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>21/02/2008</t>
+          <t>10/06/2008</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
@@ -5017,7 +5017,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2688254&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE ÁCIDO SULFURICO A GRANEL ENTRE LA PRIMERA Y DÉCIMA REGIONES DE CHILE (e-seia)</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5047,15 +5047,15 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>429</v>
+        <v>0</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>02/11/2007</t>
+          <t>21/02/2008</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
@@ -5065,7 +5065,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2688254&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5080,7 +5080,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>PROYECTO REGULARIZACION BOTADERO DE RIPIOS (e-seia)</t>
+          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5090,20 +5090,20 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Compañía Minera Cerro Negro S.A.</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>327</v>
+        <v>429</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>24/10/2007</t>
+          <t>02/11/2007</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
@@ -5113,7 +5113,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2422784&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>PROYECTO REGULARIZACION BOTADERO DE RIPIOS (e-seia)</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5138,30 +5138,30 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Compañía Minera Cerro Negro S.A.</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>234</v>
+        <v>327</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>24/10/2007</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2422784&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>PROYECTO AMPLIACIÓN DE TRANQUES DE RELAVES Nº6 (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5186,30 +5186,30 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Compañía Minera Cerro Negro S.A.</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>1200</v>
+        <v>234</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2313324&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Regularización Botadero de Ripios (e-seia)</t>
+          <t>PROYECTO AMPLIACIÓN DE TRANQUES DE RELAVES Nº6 (e-seia)</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5243,7 +5243,7 @@
         </is>
       </c>
       <c r="F102" t="n">
-        <v>327</v>
+        <v>1200</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
@@ -5252,12 +5252,12 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2313389&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2313324&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Regularización Botadero de Ripios (e-seia)</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5282,16 +5282,16 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Compañía Minera Cerro Negro S.A.</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>10</v>
+        <v>327</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
@@ -5305,7 +5305,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2313389&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5335,15 +5335,15 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
@@ -5353,7 +5353,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5383,25 +5383,25 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>1</v>
+        <v>300</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>16/03/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Transporte, Reciclaje y Gestión de Residuos Industriales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5431,25 +5431,25 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>210</v>
+        <v>1</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>20/02/2007</t>
+          <t>16/03/2007</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2002494&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Transporte, Reciclaje y Gestión de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5479,15 +5479,15 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>500</v>
+        <v>210</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>13/02/2007</t>
+          <t>20/02/2007</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
@@ -5497,7 +5497,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2002494&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5512,7 +5512,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5527,25 +5527,25 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>13/02/2007</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5560,7 +5560,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5583,17 +5583,17 @@
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5608,7 +5608,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Modificación al Plan Regulador Metropolitano de Valparaíso Satélite Petorca - Cabildo (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5618,30 +5618,30 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región de Valparaíso</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>19/12/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1870997&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5656,7 +5656,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
+          <t>Modificación al Plan Regulador Metropolitano de Valparaíso Satélite Petorca - Cabildo (e-seia)</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5666,20 +5666,20 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>TRANSPORTES INOSTROZA LTDA</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región de Valparaíso</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>07/12/2006</t>
+          <t>19/12/2006</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
@@ -5689,7 +5689,7 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1870997&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5704,7 +5704,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las regiones I, II, III, IV, VII y Región Metropolitana (e-seia)</t>
+          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5719,15 +5719,15 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTES INOSTROZA LTDA</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>22/11/2006</t>
+          <t>07/12/2006</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
@@ -5737,7 +5737,7 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1821133&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5752,7 +5752,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las regiones I, II, III, IV, VII y Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5775,17 +5775,17 @@
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>10/11/2006</t>
+          <t>22/11/2006</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1821133&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5800,7 +5800,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, VI, VII y RM, "Transportes Bello" (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5823,7 +5823,7 @@
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>02/11/2006</t>
+          <t>10/11/2006</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
@@ -5833,7 +5833,7 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1773812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, VI, VII y RM, "Transportes Bello" (e-seia)</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5863,25 +5863,25 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>12/10/2006</t>
+          <t>02/11/2006</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1773812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5896,30 +5896,30 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Depósito de Pasta - Cabildo</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Minera Las Cenizas S.A.</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>6000</v>
+        <v>250</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>11/10/2006</t>
+          <t>12/10/2006</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
@@ -5929,7 +5929,7 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1751213&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5944,12 +5944,12 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DEL EFLUENTE DE LAVADO DE LIMONES (e-seia)</t>
+          <t>Depósito de Pasta - Cabildo</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -5959,15 +5959,15 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Agricola y Comercial CABILFRUT S.A.</t>
+          <t>Minera Las Cenizas S.A.</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>25</v>
+        <v>6000</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>14/08/2006</t>
+          <t>11/10/2006</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
@@ -5977,7 +5977,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1600036&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1751213&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5992,7 +5992,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Transporte de Combustibles (e-seia)</t>
+          <t>TRATAMIENTO DEL EFLUENTE DE LAVADO DE LIMONES (e-seia)</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6002,30 +6002,30 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>Agricola y Comercial CABILFRUT S.A.</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>500</v>
+        <v>25</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>31/03/2006</t>
+          <t>14/08/2006</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1600036&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6040,7 +6040,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Transporte de Combustibles (e-seia)</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6055,25 +6055,25 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>4000</v>
+        <v>500</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>31/03/2006</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6088,7 +6088,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>PLAN REGIONAL DE DESARROLLO URBANO Y TERRITORIAL, REGIÓN DE VALPARAÍSO (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6098,30 +6098,30 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región de Valparaíso</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>08/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1331410&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6136,7 +6136,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>PLAN REGIONAL DE DESARROLLO URBANO Y TERRITORIAL, REGIÓN DE VALPARAÍSO (e-seia)</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6146,30 +6146,30 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región de Valparaíso</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>08/03/2006</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1331410&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6184,7 +6184,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6199,25 +6199,25 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Degraf Limitada</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>72</v>
+        <v>4000</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>05/01/2006</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6232,7 +6232,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6247,7 +6247,7 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Juan Pablo Pérez Reyes</t>
+          <t>Sociedad Comercial Degraf Limitada</t>
         </is>
       </c>
       <c r="F123" t="n">
@@ -6255,17 +6255,17 @@
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>20/12/2005</t>
+          <t>05/01/2006</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -6280,7 +6280,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano y Territorial PRDUT V, Región de Valparaíso (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6290,30 +6290,30 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>SEREMI MINVU V REGIÓN</t>
+          <t>Juan Pablo Pérez Reyes</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>16/12/2005</t>
+          <t>20/12/2005</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1169202&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -6328,7 +6328,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Transporte de Productos Industriales por las Regiones I, II, III, IV, V, VI y Región Metropolitana (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano y Territorial PRDUT V, Región de Valparaíso (e-seia)</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6338,12 +6338,12 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Transportes Reciclar Limitada</t>
+          <t>SEREMI MINVU V REGIÓN</t>
         </is>
       </c>
       <c r="F125" t="n">
@@ -6351,17 +6351,17 @@
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>12/12/2005</t>
+          <t>16/12/2005</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1150168&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1169202&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6376,7 +6376,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
+          <t>Transporte de Productos Industriales por las Regiones I, II, III, IV, V, VI y Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6391,15 +6391,15 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>BATERIAS COSMOS LTDA</t>
+          <t>Transportes Reciclar Limitada</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>11/11/2005</t>
+          <t>12/12/2005</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
@@ -6409,7 +6409,7 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1150168&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6424,7 +6424,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE BORRAS PLOMADAS Y OTROS RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6439,15 +6439,15 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Sociedad de Representaciones Ltda.</t>
+          <t>BATERIAS COSMOS LTDA</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>20/10/2005</t>
+          <t>11/11/2005</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
@@ -6457,7 +6457,7 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1069115&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -6472,7 +6472,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE BORRAS PLOMADAS Y OTROS RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6487,15 +6487,15 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Sociedad de Representaciones Ltda.</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>08/09/2005</t>
+          <t>20/10/2005</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
@@ -6505,7 +6505,7 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1069115&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6535,11 +6535,11 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
@@ -6553,7 +6553,7 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6568,7 +6568,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6583,11 +6583,11 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
@@ -6601,7 +6601,7 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -6616,7 +6616,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>D.I.A. para obtener ampliacion de capacidad para disponer residuos sólidos domiciliarios y asimilables en la comuna de cabildo (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6626,30 +6626,30 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Julia Haydeé Olivares Vega</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F131" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>29/04/2005</t>
+          <t>08/09/2005</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=643104&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6664,7 +6664,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>PROYECTO DEPOSITACIÓN DE RELAVES ESPESADOS INTERIOR MINA CABILDO (e-seia)</t>
+          <t>D.I.A. para obtener ampliacion de capacidad para disponer residuos sólidos domiciliarios y asimilables en la comuna de cabildo (e-seia)</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6679,25 +6679,25 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Minera Las Cenizas S.A.</t>
+          <t>Julia Haydeé Olivares Vega</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>27/01/2005</t>
+          <t>29/04/2005</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=580146&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=643104&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6712,7 +6712,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Proyecto Botadero Farellones II (e-seia)</t>
+          <t>PROYECTO DEPOSITACIÓN DE RELAVES ESPESADOS INTERIOR MINA CABILDO (e-seia)</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6731,11 +6731,11 @@
         </is>
       </c>
       <c r="F133" t="n">
-        <v>45</v>
+        <v>4000</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>23/09/2004</t>
+          <t>27/01/2005</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
@@ -6745,7 +6745,7 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=456985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=580146&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6760,7 +6760,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Proyecto Botadero Las Guías II (e-seia)</t>
+          <t>Proyecto Botadero Farellones II (e-seia)</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6779,7 +6779,7 @@
         </is>
       </c>
       <c r="F134" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
@@ -6793,7 +6793,7 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=457018&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=456985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6827,21 +6827,21 @@
         </is>
       </c>
       <c r="F135" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>14/09/2004</t>
+          <t>23/09/2004</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=447934&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=457018&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6856,7 +6856,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Proyecto Botadero Farellones II (e-seia)</t>
+          <t>Proyecto Botadero Las Guías II (e-seia)</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6875,11 +6875,11 @@
         </is>
       </c>
       <c r="F136" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>10/09/2004</t>
+          <t>14/09/2004</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
@@ -6889,7 +6889,7 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=446795&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=447934&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6904,7 +6904,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Transporte Rodoviario de Cloro en y entre las Regiones II y X (e-seia)</t>
+          <t>Proyecto Botadero Farellones II (e-seia)</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6914,30 +6914,30 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>Minera Las Cenizas S.A.</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>09/08/2004</t>
+          <t>10/09/2004</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=415850&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=446795&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -6952,7 +6952,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Sistema de Alcantarillado para la Localidad de Artificio de Cabildo</t>
+          <t>Transporte Rodoviario de Cloro en y entre las Regiones II y X (e-seia)</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6962,20 +6962,20 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidd de Cabildo</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>1900</v>
+        <v>0</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>04/10/2000</t>
+          <t>09/08/2004</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
@@ -6985,7 +6985,7 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3288&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=415850&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -7000,43 +7000,91 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
+          <t>Sistema de Alcantarillado para la Localidad de Artificio de Cabildo</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>Quinta</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>Ilustre Municipalidd de Cabildo</t>
+        </is>
+      </c>
+      <c r="F139" t="n">
+        <v>1900</v>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>04/10/2000</t>
+        </is>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I139" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3288&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>Cabildo</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>139</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
           <t>Normalización de la Operación de la Planta SX</t>
         </is>
       </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
-      <c r="D139" t="inlineStr">
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
         <is>
           <t>Quinta</t>
         </is>
       </c>
-      <c r="E139" t="inlineStr">
+      <c r="E140" t="inlineStr">
         <is>
           <t>Compañía Minera Cerro Negro S.A.</t>
         </is>
       </c>
-      <c r="F139" t="n">
+      <c r="F140" t="n">
         <v>1000</v>
       </c>
-      <c r="G139" t="inlineStr">
+      <c r="G140" t="inlineStr">
         <is>
           <t>17/03/2000</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr">
+      <c r="H140" t="inlineStr">
         <is>
           <t>Aprobado</t>
         </is>
       </c>
-      <c r="I139" t="inlineStr">
+      <c r="I140" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2729&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J139" t="inlineStr">
+      <c r="J140" t="inlineStr">
         <is>
           <t>Cabildo</t>
         </is>

--- a/data/Cabildo.xlsx
+++ b/data/Cabildo.xlsx
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4423,11 +4423,11 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
@@ -4436,12 +4436,12 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4471,11 +4471,11 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
@@ -4484,12 +4484,12 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>PROYECTO AMPLIACIÓN DE TRANQUES DE RELAVES Nº6 (e-seia)</t>
+          <t>Regularización Botadero de Ripios (e-seia)</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5243,7 +5243,7 @@
         </is>
       </c>
       <c r="F102" t="n">
-        <v>1200</v>
+        <v>327</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
@@ -5252,12 +5252,12 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2313324&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2313389&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Regularización Botadero de Ripios (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5282,16 +5282,16 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Compañía Minera Cerro Negro S.A.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>327</v>
+        <v>10</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
@@ -5305,7 +5305,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2313389&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>PROYECTO AMPLIACIÓN DE TRANQUES DE RELAVES Nº6 (e-seia)</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5330,16 +5330,16 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Compañía Minera Cerro Negro S.A.</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>10</v>
+        <v>1200</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
@@ -5348,12 +5348,12 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2313324&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">

--- a/data/Cabildo.xlsx
+++ b/data/Cabildo.xlsx
@@ -548,7 +548,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">

--- a/data/Cabildo.xlsx
+++ b/data/Cabildo.xlsx
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4423,11 +4423,11 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
@@ -4436,12 +4436,12 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4471,11 +4471,11 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
@@ -4484,12 +4484,12 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Regularización Botadero de Ripios (e-seia)</t>
+          <t>PROYECTO AMPLIACIÓN DE TRANQUES DE RELAVES Nº6 (e-seia)</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5243,7 +5243,7 @@
         </is>
       </c>
       <c r="F102" t="n">
-        <v>327</v>
+        <v>1200</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
@@ -5252,12 +5252,12 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2313389&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2313324&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Regularización Botadero de Ripios (e-seia)</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5282,16 +5282,16 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Compañía Minera Cerro Negro S.A.</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>10</v>
+        <v>327</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
@@ -5305,7 +5305,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2313389&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>PROYECTO AMPLIACIÓN DE TRANQUES DE RELAVES Nº6 (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5330,16 +5330,16 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Compañía Minera Cerro Negro S.A.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>1200</v>
+        <v>10</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
@@ -5348,12 +5348,12 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2313324&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">

--- a/data/Cabildo.xlsx
+++ b/data/Cabildo.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>23/10/2023</t>
+          <t>31/10/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Cabildo.xlsx
+++ b/data/Cabildo.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J140"/>
+  <dimension ref="A1:J141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,40 +424,40 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Eléctrica HVDC Kimal - Lo Aguirre</t>
+          <t>Continuidad Operacional Mina Sauce</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Conexión Kimal Lo Aguirre S.A</t>
+          <t>Minera Las Cenizas S.A.</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.48</v>
+        <v>0</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>31/10/2023</t>
+          <t>07/12/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2160211381&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2160640405&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,40 +472,40 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Cabildo Solar</t>
+          <t>Línea de Transmisión Eléctrica HVDC Kimal - Lo Aguirre</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>LUZ DE SOL 5 SPA</t>
+          <t>Conexión Kimal Lo Aguirre S.A</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>60000</v>
+        <v>1.48</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>23/08/2023</t>
+          <t>31/10/2023</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159819319&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2160211381&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Disposición de Relave en Pasta en Interior Mina</t>
+          <t>Parque Fotovoltaico Cabildo Solar</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -535,25 +535,25 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Minera Las Cenizas S.A.</t>
+          <t>LUZ DE SOL 5 SPA</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>10000</v>
+        <v>60000</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>16/05/2022</t>
+          <t>23/08/2023</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155749878&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159819319&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Proyecto Jardín Solar Petorca</t>
+          <t>Disposición de Relave en Pasta en Interior Mina</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,15 +583,15 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>ORION POWER SpA</t>
+          <t>Minera Las Cenizas S.A.</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>25/11/2020</t>
+          <t>16/05/2022</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -601,7 +601,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149087079&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155749878&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Estación de Transferencia de Residuos Sólidos Comuna de Cabildo</t>
+          <t>Proyecto Jardín Solar Petorca</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -631,25 +631,25 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Cabildo</t>
+          <t>ORION POWER SpA</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1400</v>
+        <v>12000</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>21/10/2020</t>
+          <t>25/11/2020</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148775536&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149087079&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Cabildo Sunlight</t>
+          <t>Estación de Transferencia de Residuos Sólidos Comuna de Cabildo</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -679,25 +679,25 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Cabildo Sunlight SpA</t>
+          <t>Ilustre Municipalidad de Cabildo</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>10000</v>
+        <v>1400</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>22/07/2020</t>
+          <t>21/10/2020</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147479274&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148775536&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Ampliación de la Actividad de Transporte de Sustancias Peligrosas de ENAEX Servicios S.A.</t>
+          <t>Parque Fotovoltaico Cabildo Sunlight</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -722,20 +722,20 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Cabildo Sunlight SpA</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>25000</v>
+        <v>10000</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>07/01/2020</t>
+          <t>22/07/2020</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -745,7 +745,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145325740&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147479274&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Estación de Transferencia de Residuos Sólidos Comuna de Cabildo</t>
+          <t>Ampliación de la Actividad de Transporte de Sustancias Peligrosas de ENAEX Servicios S.A.</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -770,30 +770,30 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Cabildo</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>3200</v>
+        <v>25000</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>20/12/2019</t>
+          <t>07/01/2020</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145227433&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145325740&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,12 +808,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Plan de Desarrollo de Largo Plazo - Compañia Minera Cerro Negro S.A.</t>
+          <t>Estación de Transferencia de Residuos Sólidos Comuna de Cabildo</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -823,25 +823,25 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Compañía Minera Cerro Negro S.A.</t>
+          <t>Ilustre Municipalidad de Cabildo</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>22000</v>
+        <v>3200</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>18/10/2018</t>
+          <t>20/12/2019</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141586281&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145227433&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,12 +856,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Parque Solar Los Paltos</t>
+          <t>Plan de Desarrollo de Largo Plazo - Compañia Minera Cerro Negro S.A.</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -871,25 +871,25 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>PARQUE SOLAR LOS PALTOS SPA</t>
+          <t>Compañía Minera Cerro Negro S.A.</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>16114</v>
+        <v>22000</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>20/07/2018</t>
+          <t>18/10/2018</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2140987045&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141586281&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Transporte de ácido sulfúrico regiones de Antofagasta Atacama Coquimbo y Valparaíso</t>
+          <t>Parque Solar Los Paltos</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -914,20 +914,20 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Eric Alexis Fernando Aravena Aravena, Transporte de Carga y Movimiento de Tierra, Empresa Individual de Responsabilidad Limitada</t>
+          <t>PARQUE SOLAR LOS PALTOS SPA</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>4000</v>
+        <v>16114</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>27/06/2018</t>
+          <t>20/07/2018</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -937,7 +937,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2140826557&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2140987045&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Peraltamiento Tranque de Relaves N°6</t>
+          <t>Transporte de ácido sulfúrico regiones de Antofagasta Atacama Coquimbo y Valparaíso</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -962,30 +962,30 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Compañía Minera Cerro Negro S.A.</t>
+          <t>Eric Alexis Fernando Aravena Aravena, Transporte de Carga y Movimiento de Tierra, Empresa Individual de Responsabilidad Limitada</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>800</v>
+        <v>4000</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>20/12/2017</t>
+          <t>27/06/2018</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2137969123&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2140826557&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>LOTEO DOÑA AURORA DEL QUEMADO DE CABILDO</t>
+          <t>Peraltamiento Tranque de Relaves N°6</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1015,25 +1015,25 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>CARLOS SANTIAGO DIAZ ARAYA</t>
+          <t>Compañía Minera Cerro Negro S.A.</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>9500</v>
+        <v>800</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>21/07/2017</t>
+          <t>20/12/2017</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132540830&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2137969123&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Re-procesamiento y de Re-ubicación Relaves Inertizados de Cerro Negro</t>
+          <t>LOTEO DOÑA AURORA DEL QUEMADO DE CABILDO</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1063,25 +1063,25 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Gestión Minera Sustentable SpA</t>
+          <t>CARLOS SANTIAGO DIAZ ARAYA</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>3500</v>
+        <v>9500</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>06/03/2017</t>
+          <t>21/07/2017</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132180559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132540830&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Continuidad Operacional Mina Carmen - Margarita</t>
+          <t>Re-procesamiento y de Re-ubicación Relaves Inertizados de Cerro Negro</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1111,25 +1111,25 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Minera Las Cenizas S.A.</t>
+          <t>Gestión Minera Sustentable SpA</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>11000</v>
+        <v>3500</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>02/02/2017</t>
+          <t>06/03/2017</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132141791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132180559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Terrestre de Sustancias Químicas</t>
+          <t>Continuidad Operacional Mina Carmen - Margarita</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1154,20 +1154,20 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Minera Las Cenizas S.A.</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>22/08/2016</t>
+          <t>02/02/2017</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1177,7 +1177,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131697972&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132141791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Tranque Vitahue</t>
+          <t>Ampliación Transporte Terrestre de Sustancias Químicas</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1202,20 +1202,20 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Agrícola Fundo Vitahue Limitada</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>170</v>
+        <v>10000</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>18/03/2016</t>
+          <t>22/08/2016</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131185658&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131697972&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Parque Solar Fotovoltaico Cabilsol</t>
+          <t>Tranque Vitahue</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1255,15 +1255,15 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>GR Guayacan SpA</t>
+          <t>Agrícola Fundo Vitahue Limitada</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>11000</v>
+        <v>170</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>20/10/2015</t>
+          <t>18/03/2016</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130847353&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131185658&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Parque Solar Fotovoltaico Cabilsol</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1298,30 +1298,30 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>GR Guayacan SpA</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>5000</v>
+        <v>11000</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>26/01/2015</t>
+          <t>20/10/2015</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130159203&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130847353&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Peralte Tranque de Relave N°6</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1346,30 +1346,30 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Compañía Minera Cerro Negro S.A.</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>300</v>
+        <v>5000</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>19/01/2015</t>
+          <t>26/01/2015</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130144735&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130159203&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
+          <t>Peralte Tranque de Relave N°6</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1394,30 +1394,30 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Compañía Minera Cerro Negro S.A.</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>5000</v>
+        <v>300</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>26/12/2014</t>
+          <t>19/01/2015</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130144735&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Peralte Tranque de Relave N°6</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1442,30 +1442,30 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Compañía Minera Cerro Negro S.A.</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>300</v>
+        <v>5000</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>18/12/2014</t>
+          <t>26/12/2014</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130003811&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Peralte Tranque de Relave N°6</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1490,30 +1490,30 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Compañía Minera Cerro Negro S.A.</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>5000</v>
+        <v>300</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>20/11/2014</t>
+          <t>18/12/2014</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129965016&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130003811&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Modificación Transporte y Logística Interregional de Cargas y/o Sustancias Peligrosas.</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1543,25 +1543,25 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>6750</v>
+        <v>5000</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>13/11/2014</t>
+          <t>20/11/2014</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129725840&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129965016&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Modificación Transporte y Logística Interregional de Cargas y/o Sustancias Peligrosas.</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1591,25 +1591,25 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>5000</v>
+        <v>6750</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>05/11/2014</t>
+          <t>13/11/2014</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129895680&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129725840&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>REGULARIZACIÓN OPERACIÓN DE MINA PEUMO</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1634,30 +1634,30 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Compañía Minera La Patagua</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>04/09/2014</t>
+          <t>05/11/2014</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129758228&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129895680&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,12 +1672,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Faena Minera Cerro Negro</t>
+          <t>REGULARIZACIÓN OPERACIÓN DE MINA PEUMO</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1687,25 +1687,25 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Compañía Minera Cerro Negro S.A.</t>
+          <t>Compañía Minera La Patagua</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>16000</v>
+        <v>2000</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>04/07/2014</t>
+          <t>04/09/2014</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129583620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129758228&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,40 +1720,40 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y No Peligrosos entre las Regiones XV y X</t>
+          <t>Faena Minera Cerro Negro</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Compañía Minera Cerro Negro S.A.</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>5000</v>
+        <v>16000</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>30/06/2014</t>
+          <t>04/07/2014</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129237859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129583620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y No Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1783,15 +1783,15 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>VERATRANS SPA</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>800</v>
+        <v>5000</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>23/12/2013</t>
+          <t>30/06/2014</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -1801,7 +1801,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128959410&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129237859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>REGULARIZACIÓN DE LA OPERACIÓN MINA PEUMO, COMUNA DE CABILDO, PROVINCIA DE PETORCA, V REGIÓNVALPARAÍSO</t>
+          <t>Transporte de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1826,16 +1826,16 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Compañía Minera La Patagua S.A.</t>
+          <t>VERATRANS SPA</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -1849,7 +1849,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128955877&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128959410&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>REGULARIZACIÓN DE LA OPERACIÓN MINA PEUMO, COMUNA DE CABILDO, PROVINCIA DE PETORCA, V REGIÓNVALPARAÍSO</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1874,16 +1874,16 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Compañía Minera La Patagua S.A.</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1200</v>
+        <v>2000</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -1892,12 +1892,12 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128955877&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1927,11 +1927,11 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -1945,7 +1945,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>PARQUE SOLAR BARTOLILLO</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1970,20 +1970,20 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>BARTOLILLO SPA</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>16800</v>
+        <v>0</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>12/12/2013</t>
+          <t>23/12/2013</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -1993,7 +1993,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128899769&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos y No Peligrosos</t>
+          <t>PARQUE SOLAR BARTOLILLO</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2018,30 +2018,30 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>VERATRANS SPA</t>
+          <t>BARTOLILLO SPA</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>800</v>
+        <v>16800</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>20/11/2013</t>
+          <t>12/12/2013</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128831391&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128899769&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no peligrosos entre las Regiones XV y X</t>
+          <t>Transporte de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2071,15 +2071,15 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>VERATRANS SPA</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>5000</v>
+        <v>800</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>08/11/2013</t>
+          <t>20/11/2013</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128788354&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128831391&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Regularización Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2119,15 +2119,15 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>06/06/2013</t>
+          <t>08/11/2013</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -2137,7 +2137,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8227033&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128788354&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
+          <t>Regularización Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2167,25 +2167,25 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Mauricio Salím Mahmud Vergara</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>06/05/2013</t>
+          <t>06/06/2013</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8126996&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8227033&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2215,25 +2215,25 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>Mauricio Salím Mahmud Vergara</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>2475</v>
+        <v>2500</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>17/04/2013</t>
+          <t>06/05/2013</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8057600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8126996&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Poder de Compra de Mineral / Cabildo- ENAMI</t>
+          <t>Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2258,30 +2258,30 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Empresa Nacional de Minería</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>8000</v>
+        <v>2475</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>18/03/2013</t>
+          <t>17/04/2013</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7971318&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8057600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Transporte de Productos Peligrosos TREXVAL S.A.</t>
+          <t>Poder de Compra de Mineral / Cabildo- ENAMI</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2306,30 +2306,30 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>Empresa Nacional de Minería</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>2475</v>
+        <v>8000</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>14/03/2013</t>
+          <t>18/03/2013</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7954924&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7971318&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Transportes de Sustancias Peligrosas TREXVAL S.A.</t>
+          <t>Transporte de Productos Peligrosos TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2359,15 +2359,15 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>TREXVAL S.A.</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>2450</v>
+        <v>2475</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>21/12/2012</t>
+          <t>14/03/2013</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -2377,7 +2377,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7643116&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7954924&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
+          <t>Transportes de Sustancias Peligrosas TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2407,25 +2407,25 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
+          <t>TREXVAL S.A.</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>15000</v>
+        <v>2450</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>31/07/2012</t>
+          <t>21/12/2012</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7643116&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Botadero de Ripios N° 2 Cerro Negro</t>
+          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2450,20 +2450,20 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Compañía Minera Cerro Negro S.A.</t>
+          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>1500</v>
+        <v>15000</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>06/07/2012</t>
+          <t>31/07/2012</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -2473,7 +2473,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6991437&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Mejoramiento Instalaciones Planta de Procesamiento de Minerales Cabildo</t>
+          <t>Botadero de Ripios N° 2 Cerro Negro</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2503,15 +2503,15 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Minera Las Cenizas S.A.</t>
+          <t>Compañía Minera Cerro Negro S.A.</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>22/06/2012</t>
+          <t>06/07/2012</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -2521,7 +2521,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7023812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6991437&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Mejoramiento Instalaciones Planta de Procesamiento de Minerales Cabildo</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2546,30 +2546,30 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>KDM SERVICIOS S.A.</t>
+          <t>Minera Las Cenizas S.A.</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>16/05/2012</t>
+          <t>22/06/2012</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7023812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,40 +2584,40 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Proyecto de Regularización de Cerro Negro</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Compañía Minera Cerro Negro S.A.</t>
+          <t>KDM SERVICIOS S.A.</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>04/04/2012</t>
+          <t>16/05/2012</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6675301&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,40 +2632,40 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
+          <t>Proyecto de Regularización de Cerro Negro</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Compañía Minera Cerro Negro S.A.</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>200</v>
+        <v>3500</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>27/03/2012</t>
+          <t>04/04/2012</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6675301&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2695,15 +2695,15 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>20/02/2012</t>
+          <t>27/03/2012</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -2713,7 +2713,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2743,15 +2743,15 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>13/01/2012</t>
+          <t>20/02/2012</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -2761,7 +2761,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2791,15 +2791,15 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>11/01/2012</t>
+          <t>13/01/2012</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -2809,7 +2809,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2839,15 +2839,15 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>11/01/2012</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -2857,7 +2857,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2887,15 +2887,15 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>08/09/2011</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -2905,7 +2905,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2943,7 +2943,7 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>12/05/2011</t>
+          <t>08/09/2011</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -2953,7 +2953,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Ampliación de rutas para el servicio de transporte, reciclaje y gestión de residuos industriales .</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2983,25 +2983,25 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>27/04/2011</t>
+          <t>12/05/2011</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5540550&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Ampliacion de rutas para el transporte, reciclaje y gestión de residuos industriales. .</t>
+          <t>Ampliación de rutas para el servicio de transporte, reciclaje y gestión de residuos industriales .</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3039,17 +3039,17 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>15/04/2011</t>
+          <t>27/04/2011</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5532880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5540550&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Enaex Servicios S.A</t>
+          <t>Ampliacion de rutas para el transporte, reciclaje y gestión de residuos industriales. .</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3079,25 +3079,25 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>12000</v>
+        <v>250</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>14/04/2011</t>
+          <t>15/04/2011</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5537784&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5532880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Modificación Disposición de Estériles Proyecto Medialuna-Chiringo</t>
+          <t>Transporte de Sustancias Peligrosas Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3122,20 +3122,20 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Compañía Minera Cerro Negro S.A.</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>3200</v>
+        <v>12000</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>04/04/2011</t>
+          <t>14/04/2011</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -3145,7 +3145,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5484316&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5537784&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Enaex Servicios S.A</t>
+          <t>Modificación Disposición de Estériles Proyecto Medialuna-Chiringo</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3170,30 +3170,30 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Compañía Minera Cerro Negro S.A.</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>12000</v>
+        <v>3200</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>29/03/2011</t>
+          <t>04/04/2011</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5485763&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5484316&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE ÁCIDO SULFURICO EN LA I, II, III, IV, V Y REGION METROPOLITANA</t>
+          <t>Transporte de Sustancias Peligrosas Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3223,25 +3223,25 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Transportes Hurcam Spa.</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>0</v>
+        <v>12000</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>19/11/2010</t>
+          <t>29/03/2011</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5076623&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5485763&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>transporte de acido sulfúrico en la I, II, III, IV, V Y Región Metropolitana</t>
+          <t>TRANSPORTE DE ÁCIDO SULFURICO EN LA I, II, III, IV, V Y REGION METROPOLITANA</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3275,21 +3275,21 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>05/11/2010</t>
+          <t>19/11/2010</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5044515&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5076623&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos</t>
+          <t>transporte de acido sulfúrico en la I, II, III, IV, V Y Región Metropolitana</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3319,25 +3319,25 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Transportes Hurcam Spa.</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>1750</v>
+        <v>1</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>23/08/2010</t>
+          <t>05/11/2010</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4865154&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5044515&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Ácido Sulfúrico a granel entre la Regiones de Arica-Parinacota y de Valparaíso, incluida la Región Metropolitana</t>
+          <t>Transporte Terrestre de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3367,15 +3367,15 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>SOTRASER S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>410</v>
+        <v>1750</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>30/06/2010</t>
+          <t>23/08/2010</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -3385,7 +3385,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4715470&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4865154&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Explotación de Minerales Mina Don Jaime</t>
+          <t>Transporte Terrestre de Ácido Sulfúrico a granel entre la Regiones de Arica-Parinacota y de Valparaíso, incluida la Región Metropolitana</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3410,20 +3410,20 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Minera Las Cenizas S.A.</t>
+          <t>SOTRASER S.A.</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>10000</v>
+        <v>410</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>10/06/2010</t>
+          <t>30/06/2010</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -3433,7 +3433,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4643665&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4715470&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Expansión Mina Carmen - Margarita</t>
+          <t>Explotación de Minerales Mina Don Jaime</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3467,11 +3467,11 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>450</v>
+        <v>10000</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>14/05/2010</t>
+          <t>10/06/2010</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -3481,7 +3481,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4512582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4643665&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
+          <t>Expansión Mina Carmen - Margarita</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3506,20 +3506,20 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Minera Las Cenizas S.A.</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>4050</v>
+        <v>450</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>03/05/2010</t>
+          <t>14/05/2010</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -3529,7 +3529,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4512582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3559,15 +3559,15 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>250</v>
+        <v>4050</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>26/04/2010</t>
+          <t>03/05/2010</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -3577,7 +3577,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Transporte de Cargas por Carretera</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3607,25 +3607,25 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>31/03/2010</t>
+          <t>26/04/2010</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Cargas por Carretera</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3655,15 +3655,15 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>24/03/2010</t>
+          <t>31/03/2010</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -3673,7 +3673,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Transporte de residuos peligrosos, Transportes Bello</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3711,7 +3711,7 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>18/02/2010</t>
+          <t>24/03/2010</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -3721,7 +3721,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4348527&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Transporte de residuos peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3751,25 +3751,25 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>250</v>
+        <v>4050</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>10/02/2010</t>
+          <t>18/02/2010</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4348527&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3799,15 +3799,15 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>22/01/2010</t>
+          <t>10/02/2010</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -3817,7 +3817,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3847,7 +3847,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F73" t="n">
@@ -3860,12 +3860,12 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3903,17 +3903,17 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>15/01/2010</t>
+          <t>22/01/2010</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3943,25 +3943,25 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Transportes TREPE Ltda.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>08/01/2010</t>
+          <t>15/01/2010</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, Región Metropolitana y VI (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3991,15 +3991,15 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Rojas y Donaire Cía. Ltda.</t>
+          <t>Transportes TREPE Ltda.</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>2000</v>
+        <v>350</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>18/11/2009</t>
+          <t>08/01/2010</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
@@ -4009,7 +4009,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4151517&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, Región Metropolitana y VI (e-seia)</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4039,25 +4039,25 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Rojas y Donaire Cía. Ltda.</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>250</v>
+        <v>2000</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>15/10/2009</t>
+          <t>18/11/2009</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4108064&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4151517&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4095,7 +4095,7 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>23/09/2009</t>
+          <t>15/10/2009</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -4105,7 +4105,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4108064&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Transporte de Combustibles y Residuos Industriales, Peligrosos y No Peligrosos entre Arica y Puerto Montt (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4135,25 +4135,25 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Transportes Centro Sur Norte S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>27/07/2009</t>
+          <t>23/09/2009</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3893261&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto Interregional de Transporte de Combustibles y Residuos Industriales, Peligrosos y No Peligrosos entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4183,15 +4183,15 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Transportes Centro Sur Norte S.A.</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>27/07/2009</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
@@ -4201,7 +4201,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3893261&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>TRANSPORTE SE SUSTANCIAS PELIGROSAS ENTRE LAS REGIÓNES I, II, III, IV, V, REGIÓN METROPOLITANA y VI REGION (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4231,25 +4231,25 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Rojas y Donaire Cía. Ltda.</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>2000</v>
+        <v>22</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>02/02/2009</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3533261&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>TRANSPORTE SE SUSTANCIAS PELIGROSAS ENTRE LAS REGIÓNES I, II, III, IV, V, REGIÓN METROPOLITANA y VI REGION (e-seia)</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4279,15 +4279,15 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Rojas y Donaire Cía. Ltda.</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>23/01/2009</t>
+          <t>02/02/2009</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
@@ -4297,7 +4297,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3533261&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4335,17 +4335,17 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>27/11/2008</t>
+          <t>23/01/2009</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4375,25 +4375,25 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>30/10/2008</t>
+          <t>27/11/2008</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4431,17 +4431,17 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>15/10/2008</t>
+          <t>30/10/2008</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4471,11 +4471,11 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
@@ -4484,12 +4484,12 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4527,7 +4527,7 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>01/10/2008</t>
+          <t>15/10/2008</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
@@ -4537,7 +4537,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Proyecto Expansion Rajo Medialuna - Chiringo (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4562,30 +4562,30 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Compañía Minera Cerro Negro S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>5329</v>
+        <v>250</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>16/09/2008</t>
+          <t>01/10/2008</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3190496&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>Proyecto Expansion Rajo Medialuna - Chiringo (e-seia)</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4610,30 +4610,30 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Compañía Minera Cerro Negro S.A.</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>250</v>
+        <v>5329</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>20/08/2008</t>
+          <t>16/09/2008</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3190496&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Transporte Cinco (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4663,25 +4663,25 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Transportes Cinco Limitada</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>3408</v>
+        <v>250</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>18/08/2008</t>
+          <t>20/08/2008</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3111632&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas, Transporte Cinco (e-seia)</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4711,15 +4711,15 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Transportes Cinco Limitada</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>80</v>
+        <v>3408</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>28/07/2008</t>
+          <t>18/08/2008</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
@@ -4729,7 +4729,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3066713&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3111632&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4744,7 +4744,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Regularización y Expansión Rajo Medialuna - Chiringo (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4754,30 +4754,30 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Compañía Minera Cerro Negro S.A.</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>5329</v>
+        <v>80</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>21/07/2008</t>
+          <t>28/07/2008</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3045082&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3066713&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4792,7 +4792,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Regularización y Expansión Rajo Medialuna - Chiringo (e-seia)</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4802,20 +4802,20 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Compañía Minera Cerro Negro S.A.</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>80</v>
+        <v>5329</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>14/07/2008</t>
+          <t>21/07/2008</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
@@ -4825,7 +4825,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3045082&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4840,7 +4840,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4855,25 +4855,25 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>09/07/2008</t>
+          <t>14/07/2008</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3024415&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4903,25 +4903,25 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Víctor Martínez Salcedo</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>03/07/2008</t>
+          <t>09/07/2008</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3014508&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3024415&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4951,25 +4951,25 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Víctor Martínez Salcedo</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>30/06/2008</t>
+          <t>03/07/2008</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3004520&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3014508&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
+          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4999,25 +4999,25 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Cavilolén S.A.</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>10/06/2008</t>
+          <t>30/06/2008</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3004520&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE ÁCIDO SULFURICO A GRANEL ENTRE LA PRIMERA Y DÉCIMA REGIONES DE CHILE (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5047,15 +5047,15 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>Sociedad de Transportes Cavilolén S.A.</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>21/02/2008</t>
+          <t>10/06/2008</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
@@ -5065,7 +5065,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2688254&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5080,7 +5080,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE ÁCIDO SULFURICO A GRANEL ENTRE LA PRIMERA Y DÉCIMA REGIONES DE CHILE (e-seia)</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5095,15 +5095,15 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>429</v>
+        <v>0</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>02/11/2007</t>
+          <t>21/02/2008</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
@@ -5113,7 +5113,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2688254&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>PROYECTO REGULARIZACION BOTADERO DE RIPIOS (e-seia)</t>
+          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5138,20 +5138,20 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Compañía Minera Cerro Negro S.A.</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>327</v>
+        <v>429</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>24/10/2007</t>
+          <t>02/11/2007</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
@@ -5161,7 +5161,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2422784&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>PROYECTO REGULARIZACION BOTADERO DE RIPIOS (e-seia)</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5186,30 +5186,30 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Compañía Minera Cerro Negro S.A.</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>234</v>
+        <v>327</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>24/10/2007</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2422784&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>PROYECTO AMPLIACIÓN DE TRANQUES DE RELAVES Nº6 (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5234,30 +5234,30 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Compañía Minera Cerro Negro S.A.</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>1200</v>
+        <v>234</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2313324&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Regularización Botadero de Ripios (e-seia)</t>
+          <t>PROYECTO AMPLIACIÓN DE TRANQUES DE RELAVES Nº6 (e-seia)</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5291,7 +5291,7 @@
         </is>
       </c>
       <c r="F103" t="n">
-        <v>327</v>
+        <v>1200</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
@@ -5300,12 +5300,12 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2313389&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2313324&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Regularización Botadero de Ripios (e-seia)</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5330,16 +5330,16 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Compañía Minera Cerro Negro S.A.</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>10</v>
+        <v>327</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
@@ -5353,7 +5353,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2313389&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5383,15 +5383,15 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
@@ -5401,7 +5401,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5431,25 +5431,25 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>1</v>
+        <v>300</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>16/03/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Transporte, Reciclaje y Gestión de Residuos Industriales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5479,25 +5479,25 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>210</v>
+        <v>1</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>20/02/2007</t>
+          <t>16/03/2007</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2002494&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5512,7 +5512,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Transporte, Reciclaje y Gestión de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5527,15 +5527,15 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>500</v>
+        <v>210</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>13/02/2007</t>
+          <t>20/02/2007</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
@@ -5545,7 +5545,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2002494&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5560,7 +5560,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5575,25 +5575,25 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>13/02/2007</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5608,7 +5608,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5631,17 +5631,17 @@
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5656,7 +5656,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Modificación al Plan Regulador Metropolitano de Valparaíso Satélite Petorca - Cabildo (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5666,30 +5666,30 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región de Valparaíso</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>19/12/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1870997&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5704,7 +5704,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
+          <t>Modificación al Plan Regulador Metropolitano de Valparaíso Satélite Petorca - Cabildo (e-seia)</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5714,20 +5714,20 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>TRANSPORTES INOSTROZA LTDA</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región de Valparaíso</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>07/12/2006</t>
+          <t>19/12/2006</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
@@ -5737,7 +5737,7 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1870997&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5752,7 +5752,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las regiones I, II, III, IV, VII y Región Metropolitana (e-seia)</t>
+          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5767,15 +5767,15 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTES INOSTROZA LTDA</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>22/11/2006</t>
+          <t>07/12/2006</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
@@ -5785,7 +5785,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1821133&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5800,7 +5800,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las regiones I, II, III, IV, VII y Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5823,17 +5823,17 @@
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>10/11/2006</t>
+          <t>22/11/2006</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1821133&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, VI, VII y RM, "Transportes Bello" (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5871,7 +5871,7 @@
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>02/11/2006</t>
+          <t>10/11/2006</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
@@ -5881,7 +5881,7 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1773812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, VI, VII y RM, "Transportes Bello" (e-seia)</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5911,25 +5911,25 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>12/10/2006</t>
+          <t>02/11/2006</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1773812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5944,30 +5944,30 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Depósito de Pasta - Cabildo</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Minera Las Cenizas S.A.</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>6000</v>
+        <v>250</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>11/10/2006</t>
+          <t>12/10/2006</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
@@ -5977,7 +5977,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1751213&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5992,12 +5992,12 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DEL EFLUENTE DE LAVADO DE LIMONES (e-seia)</t>
+          <t>Depósito de Pasta - Cabildo</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -6007,15 +6007,15 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Agricola y Comercial CABILFRUT S.A.</t>
+          <t>Minera Las Cenizas S.A.</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>25</v>
+        <v>6000</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>14/08/2006</t>
+          <t>11/10/2006</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
@@ -6025,7 +6025,7 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1600036&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1751213&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6040,7 +6040,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Transporte de Combustibles (e-seia)</t>
+          <t>TRATAMIENTO DEL EFLUENTE DE LAVADO DE LIMONES (e-seia)</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6050,30 +6050,30 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>Agricola y Comercial CABILFRUT S.A.</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>500</v>
+        <v>25</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>31/03/2006</t>
+          <t>14/08/2006</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1600036&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6088,7 +6088,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Transporte de Combustibles (e-seia)</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6103,25 +6103,25 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>4000</v>
+        <v>500</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>31/03/2006</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6136,7 +6136,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>PLAN REGIONAL DE DESARROLLO URBANO Y TERRITORIAL, REGIÓN DE VALPARAÍSO (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6146,30 +6146,30 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región de Valparaíso</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>08/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1331410&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6184,7 +6184,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>PLAN REGIONAL DE DESARROLLO URBANO Y TERRITORIAL, REGIÓN DE VALPARAÍSO (e-seia)</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6194,30 +6194,30 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región de Valparaíso</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>08/03/2006</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1331410&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6232,7 +6232,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6247,25 +6247,25 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Degraf Limitada</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>72</v>
+        <v>4000</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>05/01/2006</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -6280,7 +6280,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6295,7 +6295,7 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Juan Pablo Pérez Reyes</t>
+          <t>Sociedad Comercial Degraf Limitada</t>
         </is>
       </c>
       <c r="F124" t="n">
@@ -6303,17 +6303,17 @@
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>20/12/2005</t>
+          <t>05/01/2006</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -6328,7 +6328,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano y Territorial PRDUT V, Región de Valparaíso (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6338,30 +6338,30 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>SEREMI MINVU V REGIÓN</t>
+          <t>Juan Pablo Pérez Reyes</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>16/12/2005</t>
+          <t>20/12/2005</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1169202&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6376,7 +6376,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Transporte de Productos Industriales por las Regiones I, II, III, IV, V, VI y Región Metropolitana (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano y Territorial PRDUT V, Región de Valparaíso (e-seia)</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6386,12 +6386,12 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Transportes Reciclar Limitada</t>
+          <t>SEREMI MINVU V REGIÓN</t>
         </is>
       </c>
       <c r="F126" t="n">
@@ -6399,17 +6399,17 @@
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>12/12/2005</t>
+          <t>16/12/2005</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1150168&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1169202&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6424,7 +6424,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
+          <t>Transporte de Productos Industriales por las Regiones I, II, III, IV, V, VI y Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6439,15 +6439,15 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>BATERIAS COSMOS LTDA</t>
+          <t>Transportes Reciclar Limitada</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>11/11/2005</t>
+          <t>12/12/2005</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
@@ -6457,7 +6457,7 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1150168&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -6472,7 +6472,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE BORRAS PLOMADAS Y OTROS RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6487,15 +6487,15 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Sociedad de Representaciones Ltda.</t>
+          <t>BATERIAS COSMOS LTDA</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>20/10/2005</t>
+          <t>11/11/2005</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
@@ -6505,7 +6505,7 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1069115&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6520,7 +6520,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE BORRAS PLOMADAS Y OTROS RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6535,15 +6535,15 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Sociedad de Representaciones Ltda.</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>08/09/2005</t>
+          <t>20/10/2005</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
@@ -6553,7 +6553,7 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1069115&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6583,11 +6583,11 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
@@ -6601,7 +6601,7 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -6616,7 +6616,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6631,11 +6631,11 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F131" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
@@ -6649,7 +6649,7 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6664,7 +6664,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>D.I.A. para obtener ampliacion de capacidad para disponer residuos sólidos domiciliarios y asimilables en la comuna de cabildo (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6674,30 +6674,30 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Julia Haydeé Olivares Vega</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>29/04/2005</t>
+          <t>08/09/2005</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=643104&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6712,7 +6712,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>PROYECTO DEPOSITACIÓN DE RELAVES ESPESADOS INTERIOR MINA CABILDO (e-seia)</t>
+          <t>D.I.A. para obtener ampliacion de capacidad para disponer residuos sólidos domiciliarios y asimilables en la comuna de cabildo (e-seia)</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6727,25 +6727,25 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Minera Las Cenizas S.A.</t>
+          <t>Julia Haydeé Olivares Vega</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>27/01/2005</t>
+          <t>29/04/2005</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=580146&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=643104&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6760,7 +6760,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Proyecto Botadero Farellones II (e-seia)</t>
+          <t>PROYECTO DEPOSITACIÓN DE RELAVES ESPESADOS INTERIOR MINA CABILDO (e-seia)</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6779,11 +6779,11 @@
         </is>
       </c>
       <c r="F134" t="n">
-        <v>45</v>
+        <v>4000</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>23/09/2004</t>
+          <t>27/01/2005</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
@@ -6793,7 +6793,7 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=456985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=580146&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Proyecto Botadero Las Guías II (e-seia)</t>
+          <t>Proyecto Botadero Farellones II (e-seia)</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6827,7 +6827,7 @@
         </is>
       </c>
       <c r="F135" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
@@ -6841,7 +6841,7 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=457018&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=456985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6875,21 +6875,21 @@
         </is>
       </c>
       <c r="F136" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>14/09/2004</t>
+          <t>23/09/2004</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=447934&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=457018&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6904,7 +6904,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Proyecto Botadero Farellones II (e-seia)</t>
+          <t>Proyecto Botadero Las Guías II (e-seia)</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6923,11 +6923,11 @@
         </is>
       </c>
       <c r="F137" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>10/09/2004</t>
+          <t>14/09/2004</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
@@ -6937,7 +6937,7 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=446795&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=447934&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -6952,7 +6952,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Transporte Rodoviario de Cloro en y entre las Regiones II y X (e-seia)</t>
+          <t>Proyecto Botadero Farellones II (e-seia)</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6962,30 +6962,30 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>Minera Las Cenizas S.A.</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>09/08/2004</t>
+          <t>10/09/2004</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=415850&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=446795&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -7000,7 +7000,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Sistema de Alcantarillado para la Localidad de Artificio de Cabildo</t>
+          <t>Transporte Rodoviario de Cloro en y entre las Regiones II y X (e-seia)</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7010,20 +7010,20 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidd de Cabildo</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>1900</v>
+        <v>0</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>04/10/2000</t>
+          <t>09/08/2004</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
@@ -7033,7 +7033,7 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3288&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=415850&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7048,43 +7048,91 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
+          <t>Sistema de Alcantarillado para la Localidad de Artificio de Cabildo</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>Quinta</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>Ilustre Municipalidd de Cabildo</t>
+        </is>
+      </c>
+      <c r="F140" t="n">
+        <v>1900</v>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>04/10/2000</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3288&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>Cabildo</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>140</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
           <t>Normalización de la Operación de la Planta SX</t>
         </is>
       </c>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
-      <c r="D140" t="inlineStr">
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
         <is>
           <t>Quinta</t>
         </is>
       </c>
-      <c r="E140" t="inlineStr">
+      <c r="E141" t="inlineStr">
         <is>
           <t>Compañía Minera Cerro Negro S.A.</t>
         </is>
       </c>
-      <c r="F140" t="n">
+      <c r="F141" t="n">
         <v>1000</v>
       </c>
-      <c r="G140" t="inlineStr">
+      <c r="G141" t="inlineStr">
         <is>
           <t>17/03/2000</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr">
+      <c r="H141" t="inlineStr">
         <is>
           <t>Aprobado</t>
         </is>
       </c>
-      <c r="I140" t="inlineStr">
+      <c r="I141" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2729&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J140" t="inlineStr">
+      <c r="J141" t="inlineStr">
         <is>
           <t>Cabildo</t>
         </is>

--- a/data/Cabildo.xlsx
+++ b/data/Cabildo.xlsx
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4471,11 +4471,11 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
@@ -4484,12 +4484,12 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4519,11 +4519,11 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
@@ -4532,12 +4532,12 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>PROYECTO AMPLIACIÓN DE TRANQUES DE RELAVES Nº6 (e-seia)</t>
+          <t>Regularización Botadero de Ripios (e-seia)</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5291,7 +5291,7 @@
         </is>
       </c>
       <c r="F103" t="n">
-        <v>1200</v>
+        <v>327</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
@@ -5300,12 +5300,12 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2313324&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2313389&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Regularización Botadero de Ripios (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5330,16 +5330,16 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Compañía Minera Cerro Negro S.A.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>327</v>
+        <v>10</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
@@ -5353,7 +5353,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2313389&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>PROYECTO AMPLIACIÓN DE TRANQUES DE RELAVES Nº6 (e-seia)</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5378,16 +5378,16 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Compañía Minera Cerro Negro S.A.</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>10</v>
+        <v>1200</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
@@ -5396,12 +5396,12 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2313324&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">

--- a/data/Cabildo.xlsx
+++ b/data/Cabildo.xlsx
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4471,11 +4471,11 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
@@ -4484,12 +4484,12 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4519,11 +4519,11 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
@@ -4532,12 +4532,12 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Regularización Botadero de Ripios (e-seia)</t>
+          <t>PROYECTO AMPLIACIÓN DE TRANQUES DE RELAVES Nº6 (e-seia)</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5291,7 +5291,7 @@
         </is>
       </c>
       <c r="F103" t="n">
-        <v>327</v>
+        <v>1200</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
@@ -5300,12 +5300,12 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2313389&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2313324&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Regularización Botadero de Ripios (e-seia)</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5330,16 +5330,16 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Compañía Minera Cerro Negro S.A.</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>10</v>
+        <v>327</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
@@ -5353,7 +5353,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2313389&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>PROYECTO AMPLIACIÓN DE TRANQUES DE RELAVES Nº6 (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5378,16 +5378,16 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Compañía Minera Cerro Negro S.A.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>1200</v>
+        <v>10</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
@@ -5396,12 +5396,12 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2313324&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">

--- a/data/Cabildo.xlsx
+++ b/data/Cabildo.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>07/12/2023</t>
+          <t>15/12/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
